--- a/BackTest/2019-11-15 BackTest LAMB.xlsx
+++ b/BackTest/2019-11-15 BackTest LAMB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.9999999999999929</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>55.55555555555608</v>
+      </c>
       <c r="L12" t="n">
         <v>44.95999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.9999999999999929</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>55.55555555555608</v>
+      </c>
       <c r="L13" t="n">
         <v>45.01</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.9999999999999929</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>55.55555555555608</v>
+      </c>
       <c r="L14" t="n">
         <v>45.06</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.099999999999994</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>60.00000000000056</v>
+      </c>
       <c r="L15" t="n">
         <v>45.11999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.099999999999994</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>45.17999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.199999999999989</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>19.99999999999943</v>
+      </c>
       <c r="L17" t="n">
         <v>45.18999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.199999999999989</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>45.2</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.199999999999989</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>33.33333333333176</v>
+      </c>
       <c r="L19" t="n">
         <v>45.2</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.699999999999989</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>74.99999999999956</v>
+      </c>
       <c r="L20" t="n">
         <v>45.26</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.799999999999983</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>75.00000000000111</v>
+      </c>
       <c r="L21" t="n">
         <v>45.31</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.799999999999983</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>75.00000000000111</v>
+      </c>
       <c r="L22" t="n">
         <v>45.36999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.899999999999977</v>
       </c>
       <c r="K23" t="n">
-        <v>66.66666666666733</v>
+        <v>77.77777777777865</v>
       </c>
       <c r="L23" t="n">
         <v>45.43999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>1.899999999999977</v>
       </c>
       <c r="K24" t="n">
-        <v>66.66666666666733</v>
+        <v>75.00000000000088</v>
       </c>
       <c r="L24" t="n">
         <v>45.50999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>1.999999999999979</v>
       </c>
       <c r="K25" t="n">
-        <v>68.42105263157961</v>
+        <v>77.77777777777865</v>
       </c>
       <c r="L25" t="n">
         <v>45.57999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>2.09999999999998</v>
       </c>
       <c r="K26" t="n">
-        <v>70.00000000000067</v>
+        <v>77.77777777777884</v>
       </c>
       <c r="L26" t="n">
         <v>45.65999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>2.09999999999998</v>
       </c>
       <c r="K27" t="n">
-        <v>57.14285714285787</v>
+        <v>77.77777777777884</v>
       </c>
       <c r="L27" t="n">
         <v>45.72999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>2.09999999999998</v>
       </c>
       <c r="K28" t="n">
-        <v>57.14285714285787</v>
+        <v>77.77777777777884</v>
       </c>
       <c r="L28" t="n">
         <v>45.79999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>2.09999999999998</v>
       </c>
       <c r="K29" t="n">
-        <v>53.84615384615478</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L29" t="n">
         <v>45.86999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>2.199999999999982</v>
       </c>
       <c r="K30" t="n">
-        <v>53.84615384615393</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L30" t="n">
         <v>45.87999999999998</v>
@@ -1809,7 +1831,7 @@
         <v>2.199999999999982</v>
       </c>
       <c r="K31" t="n">
-        <v>53.84615384615393</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L31" t="n">
         <v>45.89999999999998</v>
@@ -1860,7 +1882,7 @@
         <v>2.499999999999986</v>
       </c>
       <c r="K32" t="n">
-        <v>73.33333333333377</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L32" t="n">
         <v>45.94999999999998</v>
@@ -1911,7 +1933,7 @@
         <v>2.599999999999987</v>
       </c>
       <c r="K33" t="n">
-        <v>62.50000000000022</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L33" t="n">
         <v>45.97999999999998</v>
@@ -1962,7 +1984,7 @@
         <v>2.699999999999989</v>
       </c>
       <c r="K34" t="n">
-        <v>52.94117647058828</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L34" t="n">
         <v>45.99999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>2.899999999999991</v>
       </c>
       <c r="K35" t="n">
-        <v>33.33333333333307</v>
+        <v>-25</v>
       </c>
       <c r="L35" t="n">
         <v>45.98999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>3.199999999999989</v>
       </c>
       <c r="K36" t="n">
-        <v>14.28571428571419</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L36" t="n">
         <v>45.93999999999998</v>
@@ -2115,7 +2137,7 @@
         <v>3.199999999999989</v>
       </c>
       <c r="K37" t="n">
-        <v>10.00000000000014</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L37" t="n">
         <v>45.88999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>3.199999999999989</v>
       </c>
       <c r="K38" t="n">
-        <v>10.00000000000014</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L38" t="n">
         <v>45.83999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>3.199999999999989</v>
       </c>
       <c r="K39" t="n">
-        <v>10.00000000000014</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L39" t="n">
         <v>45.78999999999998</v>
@@ -2268,7 +2290,7 @@
         <v>3.199999999999989</v>
       </c>
       <c r="K40" t="n">
-        <v>-19.99999999999981</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L40" t="n">
         <v>45.74999999999999</v>
@@ -2319,7 +2341,7 @@
         <v>3.399999999999991</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L41" t="n">
         <v>45.72999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>3.599999999999994</v>
       </c>
       <c r="K42" t="n">
-        <v>-11.1111111111112</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L42" t="n">
         <v>45.65999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>3.799999999999997</v>
       </c>
       <c r="K43" t="n">
-        <v>-5.263157894736488</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L43" t="n">
         <v>45.61999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>-14.285714285714</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L44" t="n">
         <v>45.56999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>-14.285714285714</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L45" t="n">
         <v>45.54999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>4.399999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>-4.347826086956549</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L46" t="n">
         <v>45.58999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>4.599999999999994</v>
       </c>
       <c r="K47" t="n">
-        <v>-11.99999999999982</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L47" t="n">
         <v>45.60999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>4.699999999999989</v>
       </c>
       <c r="K48" t="n">
-        <v>-7.692307692307776</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L48" t="n">
         <v>45.63999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>4.699999999999989</v>
       </c>
       <c r="K49" t="n">
-        <v>-7.692307692307776</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L49" t="n">
         <v>45.66999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>4.899999999999991</v>
       </c>
       <c r="K50" t="n">
-        <v>3.703703703703742</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L50" t="n">
         <v>45.71999999999998</v>
@@ -2829,7 +2851,7 @@
         <v>5.399999999999991</v>
       </c>
       <c r="K51" t="n">
-        <v>18.74999999999999</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L51" t="n">
         <v>45.79999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>5.899999999999991</v>
       </c>
       <c r="K52" t="n">
-        <v>23.52941176470576</v>
+        <v>61.90476190476194</v>
       </c>
       <c r="L52" t="n">
         <v>45.94999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>6.099999999999994</v>
       </c>
       <c r="K53" t="n">
-        <v>19.99999999999984</v>
+        <v>61.90476190476194</v>
       </c>
       <c r="L53" t="n">
         <v>46.05999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>6.099999999999994</v>
       </c>
       <c r="K54" t="n">
-        <v>23.52941176470576</v>
+        <v>60</v>
       </c>
       <c r="L54" t="n">
         <v>46.18999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>6.099999999999994</v>
       </c>
       <c r="K55" t="n">
-        <v>31.24999999999997</v>
+        <v>52.94117647058828</v>
       </c>
       <c r="L55" t="n">
         <v>46.30999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>6.299999999999997</v>
       </c>
       <c r="K56" t="n">
-        <v>48.38709677419342</v>
+        <v>76.47058823529382</v>
       </c>
       <c r="L56" t="n">
         <v>46.41999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>6.399999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>43.74999999999982</v>
+        <v>64.70588235294088</v>
       </c>
       <c r="L57" t="n">
         <v>46.53999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>6.799999999999997</v>
       </c>
       <c r="K58" t="n">
-        <v>27.77777777777771</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>46.60999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>7.199999999999996</v>
       </c>
       <c r="K59" t="n">
-        <v>34.9999999999999</v>
+        <v>39.13043478260856</v>
       </c>
       <c r="L59" t="n">
         <v>46.71999999999998</v>
@@ -3288,7 +3310,7 @@
         <v>7.399999999999991</v>
       </c>
       <c r="K60" t="n">
-        <v>28.57142857142862</v>
+        <v>10.00000000000014</v>
       </c>
       <c r="L60" t="n">
         <v>46.78999999999998</v>
@@ -3339,7 +3361,7 @@
         <v>7.499999999999993</v>
       </c>
       <c r="K61" t="n">
-        <v>21.95121951219508</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L61" t="n">
         <v>46.79999999999999</v>
@@ -3390,7 +3412,7 @@
         <v>7.599999999999994</v>
       </c>
       <c r="K62" t="n">
-        <v>30.00000000000007</v>
+        <v>-6.666666666666288</v>
       </c>
       <c r="L62" t="n">
         <v>46.77</v>
@@ -3441,7 +3463,7 @@
         <v>7.899999999999991</v>
       </c>
       <c r="K63" t="n">
-        <v>31.7073170731707</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L63" t="n">
         <v>46.78999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>7.999999999999993</v>
       </c>
       <c r="K64" t="n">
-        <v>35.00000000000003</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L64" t="n">
         <v>46.8</v>
@@ -3543,7 +3565,7 @@
         <v>8.199999999999996</v>
       </c>
       <c r="K65" t="n">
-        <v>36.58536585365859</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L65" t="n">
         <v>46.82999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>8.5</v>
       </c>
       <c r="K66" t="n">
-        <v>21.95121951219508</v>
+        <v>-4.761904761904826</v>
       </c>
       <c r="L66" t="n">
         <v>46.80999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>8.800000000000004</v>
       </c>
       <c r="K67" t="n">
-        <v>33.33333333333322</v>
+        <v>29.99999999999996</v>
       </c>
       <c r="L67" t="n">
         <v>46.83</v>
@@ -3696,7 +3718,7 @@
         <v>9.100000000000009</v>
       </c>
       <c r="K68" t="n">
-        <v>22.72727272727262</v>
+        <v>-5.263157894736882</v>
       </c>
       <c r="L68" t="n">
         <v>46.85999999999999</v>
@@ -3747,7 +3769,7 @@
         <v>9.100000000000009</v>
       </c>
       <c r="K69" t="n">
-        <v>22.72727272727262</v>
+        <v>5.882352941176077</v>
       </c>
       <c r="L69" t="n">
         <v>46.84999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>9.300000000000011</v>
       </c>
       <c r="K70" t="n">
-        <v>22.72727272727262</v>
+        <v>22.22222222222192</v>
       </c>
       <c r="L70" t="n">
         <v>46.87999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>9.70000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>20.93023255813941</v>
+        <v>33.33333333333288</v>
       </c>
       <c r="L71" t="n">
         <v>46.95999999999999</v>
@@ -3900,7 +3922,7 @@
         <v>10.10000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>19.0476190476189</v>
+        <v>36.36363636363595</v>
       </c>
       <c r="L72" t="n">
         <v>47.06999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>13.63636363636363</v>
+        <v>19.99999999999989</v>
       </c>
       <c r="L73" t="n">
         <v>47.10999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>13.63636363636363</v>
+        <v>13.04347826086938</v>
       </c>
       <c r="L74" t="n">
         <v>47.15999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>11.10000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>23.99999999999999</v>
+        <v>46.15384615384611</v>
       </c>
       <c r="L75" t="n">
         <v>47.24999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>11.30000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>23.99999999999999</v>
+        <v>43.99999999999994</v>
       </c>
       <c r="L76" t="n">
         <v>47.38999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>11.30000000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>26.53061224489798</v>
+        <v>63.63636363636381</v>
       </c>
       <c r="L77" t="n">
         <v>47.49999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>11.50000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>40.4255319148935</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L78" t="n">
         <v>47.65999999999998</v>
@@ -4257,7 +4279,7 @@
         <v>11.50000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>34.88372093023246</v>
+        <v>63.63636363636369</v>
       </c>
       <c r="L79" t="n">
         <v>47.81999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>11.60000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>38.0952380952378</v>
+        <v>47.36842105263154</v>
       </c>
       <c r="L80" t="n">
         <v>47.94999999999999</v>
@@ -4359,7 +4381,7 @@
         <v>11.8</v>
       </c>
       <c r="K81" t="n">
-        <v>34.88372093023246</v>
+        <v>17.64705882352971</v>
       </c>
       <c r="L81" t="n">
         <v>48.02</v>
@@ -4410,7 +4432,7 @@
         <v>11.8</v>
       </c>
       <c r="K82" t="n">
-        <v>33.33333333333322</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L82" t="n">
         <v>48.05</v>
@@ -4461,7 +4483,7 @@
         <v>11.8</v>
       </c>
       <c r="K83" t="n">
-        <v>28.20512820512815</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L83" t="n">
         <v>48.11999999999999</v>
@@ -4512,7 +4534,7 @@
         <v>12.3</v>
       </c>
       <c r="K84" t="n">
-        <v>16.27906976744188</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>48.14</v>
@@ -4563,7 +4585,7 @@
         <v>12.5</v>
       </c>
       <c r="K85" t="n">
-        <v>16.27906976744174</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L85" t="n">
         <v>48.11999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>12.5</v>
       </c>
       <c r="K86" t="n">
-        <v>25</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L86" t="n">
         <v>48.07999999999999</v>
@@ -4665,7 +4687,7 @@
         <v>12.5</v>
       </c>
       <c r="K87" t="n">
-        <v>18.91891891891883</v>
+        <v>-60.00000000000056</v>
       </c>
       <c r="L87" t="n">
         <v>48.03999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>12.5</v>
       </c>
       <c r="K88" t="n">
-        <v>29.41176470588243</v>
+        <v>-60.00000000000056</v>
       </c>
       <c r="L88" t="n">
         <v>47.98</v>
@@ -4767,7 +4789,7 @@
         <v>12.5</v>
       </c>
       <c r="K89" t="n">
-        <v>29.41176470588243</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L89" t="n">
         <v>47.91999999999999</v>
@@ -4818,7 +4840,7 @@
         <v>12.5</v>
       </c>
       <c r="K90" t="n">
-        <v>25</v>
+        <v>-42.85714285714373</v>
       </c>
       <c r="L90" t="n">
         <v>47.86999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>12.6</v>
       </c>
       <c r="K91" t="n">
-        <v>17.24137931034488</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L91" t="n">
         <v>47.84999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>12.7</v>
       </c>
       <c r="K92" t="n">
-        <v>7.692307692307819</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L92" t="n">
         <v>47.83999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>12.7</v>
       </c>
       <c r="K93" t="n">
-        <v>27.27272727272739</v>
+        <v>100</v>
       </c>
       <c r="L93" t="n">
         <v>47.82999999999998</v>
@@ -5022,7 +5044,7 @@
         <v>13</v>
       </c>
       <c r="K94" t="n">
-        <v>36.00000000000004</v>
+        <v>100</v>
       </c>
       <c r="L94" t="n">
         <v>47.89999999999998</v>
@@ -5073,7 +5095,7 @@
         <v>13.6</v>
       </c>
       <c r="K95" t="n">
-        <v>36.00000000000004</v>
+        <v>100</v>
       </c>
       <c r="L95" t="n">
         <v>48.00999999999998</v>
@@ -5124,7 +5146,7 @@
         <v>13.6</v>
       </c>
       <c r="K96" t="n">
-        <v>30.4347826086956</v>
+        <v>100</v>
       </c>
       <c r="L96" t="n">
         <v>48.11999999999998</v>
@@ -5175,7 +5197,7 @@
         <v>14</v>
       </c>
       <c r="K97" t="n">
-        <v>40.7407407407407</v>
+        <v>100</v>
       </c>
       <c r="L97" t="n">
         <v>48.26999999999997</v>
@@ -5226,7 +5248,7 @@
         <v>14.3</v>
       </c>
       <c r="K98" t="n">
-        <v>42.857142857143</v>
+        <v>100</v>
       </c>
       <c r="L98" t="n">
         <v>48.44999999999997</v>
@@ -5277,7 +5299,7 @@
         <v>14.3</v>
       </c>
       <c r="K99" t="n">
-        <v>42.857142857143</v>
+        <v>100</v>
       </c>
       <c r="L99" t="n">
         <v>48.62999999999997</v>
@@ -5328,7 +5350,7 @@
         <v>14.7</v>
       </c>
       <c r="K100" t="n">
-        <v>29.03225806451636</v>
+        <v>61.90476190476206</v>
       </c>
       <c r="L100" t="n">
         <v>48.76999999999997</v>
@@ -5379,7 +5401,7 @@
         <v>14.90000000000001</v>
       </c>
       <c r="K101" t="n">
-        <v>29.03225806451607</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L101" t="n">
         <v>48.87999999999996</v>
@@ -5430,7 +5452,7 @@
         <v>15.00000000000001</v>
       </c>
       <c r="K102" t="n">
-        <v>24.99999999999989</v>
+        <v>39.13043478260856</v>
       </c>
       <c r="L102" t="n">
         <v>48.96999999999996</v>
@@ -5481,7 +5503,7 @@
         <v>15.50000000000001</v>
       </c>
       <c r="K103" t="n">
-        <v>8.108108108108025</v>
+        <v>4.000000000000045</v>
       </c>
       <c r="L103" t="n">
         <v>49.00999999999996</v>
@@ -5532,7 +5554,7 @@
         <v>15.50000000000001</v>
       </c>
       <c r="K104" t="n">
-        <v>24.99999999999989</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L104" t="n">
         <v>49.01999999999995</v>
@@ -5583,7 +5605,7 @@
         <v>15.50000000000001</v>
       </c>
       <c r="K105" t="n">
-        <v>20</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L105" t="n">
         <v>48.96999999999996</v>
@@ -5634,7 +5656,7 @@
         <v>15.70000000000001</v>
       </c>
       <c r="K106" t="n">
-        <v>25.00000000000006</v>
+        <v>-41.17647058823481</v>
       </c>
       <c r="L106" t="n">
         <v>48.93999999999996</v>
@@ -5685,7 +5707,7 @@
         <v>15.80000000000001</v>
       </c>
       <c r="K107" t="n">
-        <v>27.27272727272735</v>
+        <v>-59.99999999999962</v>
       </c>
       <c r="L107" t="n">
         <v>48.87999999999997</v>
@@ -5736,7 +5758,7 @@
         <v>15.90000000000001</v>
       </c>
       <c r="K108" t="n">
-        <v>23.52941176470592</v>
+        <v>-62.49999999999967</v>
       </c>
       <c r="L108" t="n">
         <v>48.77999999999996</v>
@@ -5787,7 +5809,7 @@
         <v>16.20000000000002</v>
       </c>
       <c r="K109" t="n">
-        <v>13.51351351351345</v>
+        <v>-59.99999999999981</v>
       </c>
       <c r="L109" t="n">
         <v>48.64999999999996</v>
@@ -5838,7 +5860,7 @@
         <v>16.50000000000001</v>
       </c>
       <c r="K110" t="n">
-        <v>5.000000000000053</v>
+        <v>-62.49999999999967</v>
       </c>
       <c r="L110" t="n">
         <v>48.52999999999996</v>
@@ -5889,7 +5911,7 @@
         <v>16.70000000000002</v>
       </c>
       <c r="K111" t="n">
-        <v>-2.439024390243928</v>
+        <v>-64.70588235294088</v>
       </c>
       <c r="L111" t="n">
         <v>48.40999999999995</v>
@@ -5940,7 +5962,7 @@
         <v>16.70000000000002</v>
       </c>
       <c r="K112" t="n">
-        <v>-5.000000000000053</v>
+        <v>-49.99999999999971</v>
       </c>
       <c r="L112" t="n">
         <v>48.29999999999995</v>
@@ -5991,7 +6013,7 @@
         <v>16.90000000000002</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>-28.57142857142821</v>
       </c>
       <c r="L113" t="n">
         <v>48.25999999999996</v>
@@ -6042,7 +6064,7 @@
         <v>16.90000000000002</v>
       </c>
       <c r="K114" t="n">
-        <v>-7.692307692307581</v>
+        <v>-28.57142857142821</v>
       </c>
       <c r="L114" t="n">
         <v>48.21999999999996</v>
@@ -6093,7 +6115,7 @@
         <v>17.20000000000002</v>
       </c>
       <c r="K115" t="n">
-        <v>-33.33333333333307</v>
+        <v>-59.99999999999962</v>
       </c>
       <c r="L115" t="n">
         <v>48.14999999999996</v>
@@ -6144,7 +6166,7 @@
         <v>17.80000000000001</v>
       </c>
       <c r="K116" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L116" t="n">
         <v>48.11999999999996</v>
@@ -6195,7 +6217,7 @@
         <v>17.80000000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>-26.31578947368413</v>
+        <v>-15.78947368421076</v>
       </c>
       <c r="L117" t="n">
         <v>48.07999999999996</v>
@@ -6246,7 +6268,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K118" t="n">
-        <v>-29.72972972972969</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L118" t="n">
         <v>48.06999999999995</v>
@@ -6297,7 +6319,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K119" t="n">
-        <v>-29.72972972972969</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L119" t="n">
         <v>48.08999999999995</v>
@@ -6348,7 +6370,7 @@
         <v>18.10000000000002</v>
       </c>
       <c r="K120" t="n">
-        <v>-17.64705882352939</v>
+        <v>57.14285714285751</v>
       </c>
       <c r="L120" t="n">
         <v>48.14999999999994</v>
@@ -6399,7 +6421,7 @@
         <v>18.20000000000002</v>
       </c>
       <c r="K121" t="n">
-        <v>-9.090909090908973</v>
+        <v>60.00000000000038</v>
       </c>
       <c r="L121" t="n">
         <v>48.23999999999995</v>
@@ -6450,7 +6472,7 @@
         <v>18.30000000000001</v>
       </c>
       <c r="K122" t="n">
-        <v>-3.03030303030307</v>
+        <v>57.14285714285728</v>
       </c>
       <c r="L122" t="n">
         <v>48.33999999999995</v>
@@ -6501,7 +6523,7 @@
         <v>18.50000000000001</v>
       </c>
       <c r="K123" t="n">
-        <v>20</v>
+        <v>62.50000000000022</v>
       </c>
       <c r="L123" t="n">
         <v>48.43999999999994</v>
@@ -6552,7 +6574,7 @@
         <v>18.70000000000002</v>
       </c>
       <c r="K124" t="n">
-        <v>12.49999999999992</v>
+        <v>73.33333333333294</v>
       </c>
       <c r="L124" t="n">
         <v>48.51999999999994</v>
@@ -6603,7 +6625,7 @@
         <v>18.80000000000001</v>
       </c>
       <c r="K125" t="n">
-        <v>9.090909090909207</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L125" t="n">
         <v>48.61999999999994</v>
@@ -6654,7 +6676,7 @@
         <v>19.10000000000001</v>
       </c>
       <c r="K126" t="n">
-        <v>11.7647058823529</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L126" t="n">
         <v>48.68999999999993</v>
@@ -6705,7 +6727,7 @@
         <v>19.10000000000001</v>
       </c>
       <c r="K127" t="n">
-        <v>9.090909090909012</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L127" t="n">
         <v>48.75999999999994</v>
@@ -6756,7 +6778,7 @@
         <v>19.20000000000001</v>
       </c>
       <c r="K128" t="n">
-        <v>9.090909090909012</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L128" t="n">
         <v>48.79999999999994</v>
@@ -6807,7 +6829,7 @@
         <v>19.20000000000001</v>
       </c>
       <c r="K129" t="n">
-        <v>20.0000000000001</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L129" t="n">
         <v>48.83999999999994</v>
@@ -6858,7 +6880,7 @@
         <v>19.30000000000001</v>
       </c>
       <c r="K130" t="n">
-        <v>35.71428571428575</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L130" t="n">
         <v>48.87999999999994</v>
@@ -6909,7 +6931,7 @@
         <v>19.30000000000001</v>
       </c>
       <c r="K131" t="n">
-        <v>46.15384615384636</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L131" t="n">
         <v>48.90999999999994</v>
@@ -6960,7 +6982,7 @@
         <v>19.70000000000001</v>
       </c>
       <c r="K132" t="n">
-        <v>53.33333333333351</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L132" t="n">
         <v>48.96999999999994</v>
@@ -7011,7 +7033,7 @@
         <v>20.10000000000001</v>
       </c>
       <c r="K133" t="n">
-        <v>56.25000000000011</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L133" t="n">
         <v>49.04999999999994</v>
@@ -7062,7 +7084,7 @@
         <v>20.20000000000001</v>
       </c>
       <c r="K134" t="n">
-        <v>57.57575757575771</v>
+        <v>85.7142857142855</v>
       </c>
       <c r="L134" t="n">
         <v>49.15999999999994</v>
@@ -7113,7 +7135,7 @@
         <v>20.40000000000001</v>
       </c>
       <c r="K135" t="n">
-        <v>75.00000000000006</v>
+        <v>84.61538461538444</v>
       </c>
       <c r="L135" t="n">
         <v>49.29999999999994</v>
@@ -7164,7 +7186,7 @@
         <v>20.60000000000002</v>
       </c>
       <c r="K136" t="n">
-        <v>57.1428571428571</v>
+        <v>59.99999999999962</v>
       </c>
       <c r="L136" t="n">
         <v>49.38999999999994</v>
@@ -7215,7 +7237,7 @@
         <v>20.70000000000002</v>
       </c>
       <c r="K137" t="n">
-        <v>58.6206896551724</v>
+        <v>73.33333333333309</v>
       </c>
       <c r="L137" t="n">
         <v>49.48999999999994</v>
@@ -7266,7 +7288,7 @@
         <v>21.50000000000001</v>
       </c>
       <c r="K138" t="n">
-        <v>20.00000000000008</v>
+        <v>13.04347826086973</v>
       </c>
       <c r="L138" t="n">
         <v>49.51999999999995</v>
@@ -7317,7 +7339,7 @@
         <v>21.80000000000002</v>
       </c>
       <c r="K139" t="n">
-        <v>10.52631578947364</v>
+        <v>-4.000000000000045</v>
       </c>
       <c r="L139" t="n">
         <v>49.51999999999995</v>
@@ -7368,7 +7390,7 @@
         <v>22.10000000000002</v>
       </c>
       <c r="K140" t="n">
-        <v>15.00000000000001</v>
+        <v>7.142857142857216</v>
       </c>
       <c r="L140" t="n">
         <v>49.53999999999995</v>
@@ -7419,7 +7441,7 @@
         <v>22.30000000000002</v>
       </c>
       <c r="K141" t="n">
-        <v>17.07317073170721</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>49.57999999999995</v>
@@ -7470,7 +7492,7 @@
         <v>22.40000000000002</v>
       </c>
       <c r="K142" t="n">
-        <v>12.19512195121949</v>
+        <v>-21.7391304347825</v>
       </c>
       <c r="L142" t="n">
         <v>49.56999999999995</v>
@@ -7521,7 +7543,7 @@
         <v>22.60000000000002</v>
       </c>
       <c r="K143" t="n">
-        <v>2.439024390243936</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L143" t="n">
         <v>49.49999999999995</v>
@@ -7572,7 +7594,7 @@
         <v>23.10000000000002</v>
       </c>
       <c r="K144" t="n">
-        <v>-4.54545454545445</v>
+        <v>-55.5555555555555</v>
       </c>
       <c r="L144" t="n">
         <v>49.36999999999995</v>
@@ -7623,7 +7645,7 @@
         <v>23.20000000000002</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>-46.15384615384596</v>
       </c>
       <c r="L145" t="n">
         <v>49.22999999999995</v>
@@ -7674,7 +7696,7 @@
         <v>23.20000000000002</v>
       </c>
       <c r="K146" t="n">
-        <v>-7.317073170731622</v>
+        <v>-51.99999999999989</v>
       </c>
       <c r="L146" t="n">
         <v>49.10999999999996</v>
@@ -7725,7 +7747,7 @@
         <v>23.40000000000002</v>
       </c>
       <c r="K147" t="n">
-        <v>-11.62790697674416</v>
+        <v>-36.84210526315793</v>
       </c>
       <c r="L147" t="n">
         <v>48.95999999999996</v>
@@ -7776,7 +7798,7 @@
         <v>23.70000000000002</v>
       </c>
       <c r="K148" t="n">
-        <v>-15.55555555555544</v>
+        <v>-36.8421052631577</v>
       </c>
       <c r="L148" t="n">
         <v>48.85999999999996</v>
@@ -7827,7 +7849,7 @@
         <v>23.80000000000002</v>
       </c>
       <c r="K149" t="n">
-        <v>-17.39130434782599</v>
+        <v>-64.70588235294143</v>
       </c>
       <c r="L149" t="n">
         <v>48.77999999999996</v>
@@ -7878,7 +7900,7 @@
         <v>24.00000000000001</v>
       </c>
       <c r="K150" t="n">
-        <v>-14.89361702127665</v>
+        <v>-64.70588235294143</v>
       </c>
       <c r="L150" t="n">
         <v>48.68999999999996</v>
@@ -7929,7 +7951,7 @@
         <v>24.00000000000001</v>
       </c>
       <c r="K151" t="n">
-        <v>-14.89361702127665</v>
+        <v>-62.50000000000022</v>
       </c>
       <c r="L151" t="n">
         <v>48.57999999999996</v>
@@ -7980,7 +8002,7 @@
         <v>24.20000000000001</v>
       </c>
       <c r="K152" t="n">
-        <v>-28.88888888888883</v>
+        <v>-62.50000000000022</v>
       </c>
       <c r="L152" t="n">
         <v>48.45999999999997</v>
@@ -8031,7 +8053,7 @@
         <v>24.20000000000001</v>
       </c>
       <c r="K153" t="n">
-        <v>-41.46341463414623</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L153" t="n">
         <v>48.35999999999996</v>
@@ -8082,7 +8104,7 @@
         <v>24.20000000000001</v>
       </c>
       <c r="K154" t="n">
-        <v>-44.99999999999993</v>
+        <v>-60.00000000000056</v>
       </c>
       <c r="L154" t="n">
         <v>48.30999999999996</v>
@@ -8133,7 +8155,7 @@
         <v>24.80000000000001</v>
       </c>
       <c r="K155" t="n">
-        <v>-59.09090909090914</v>
+        <v>-75.00000000000044</v>
       </c>
       <c r="L155" t="n">
         <v>48.18999999999996</v>
@@ -8184,7 +8206,7 @@
         <v>24.90000000000001</v>
       </c>
       <c r="K156" t="n">
-        <v>-53.48837209302323</v>
+        <v>-60.00000000000018</v>
       </c>
       <c r="L156" t="n">
         <v>48.07999999999996</v>
@@ -8235,7 +8257,7 @@
         <v>25.10000000000002</v>
       </c>
       <c r="K157" t="n">
-        <v>-59.09090909090914</v>
+        <v>-57.14285714285751</v>
       </c>
       <c r="L157" t="n">
         <v>47.96999999999996</v>
@@ -8286,7 +8308,7 @@
         <v>25.30000000000001</v>
       </c>
       <c r="K158" t="n">
-        <v>-52.63157894736846</v>
+        <v>-60.00000000000018</v>
       </c>
       <c r="L158" t="n">
         <v>47.86999999999996</v>
@@ -8337,7 +8359,7 @@
         <v>26.10000000000001</v>
       </c>
       <c r="K159" t="n">
-        <v>-20.93023255813955</v>
+        <v>-14.28571428571419</v>
       </c>
       <c r="L159" t="n">
         <v>47.85999999999996</v>
@@ -8388,7 +8410,7 @@
         <v>26.40000000000001</v>
       </c>
       <c r="K160" t="n">
-        <v>-20.93023255813975</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>47.85999999999995</v>
@@ -8439,7 +8461,7 @@
         <v>26.8</v>
       </c>
       <c r="K161" t="n">
-        <v>-33.33333333333344</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L161" t="n">
         <v>47.81999999999995</v>
@@ -8490,7 +8512,7 @@
         <v>26.90000000000001</v>
       </c>
       <c r="K162" t="n">
-        <v>-28.88888888888892</v>
+        <v>-3.703703703703762</v>
       </c>
       <c r="L162" t="n">
         <v>47.80999999999996</v>
@@ -8541,7 +8563,7 @@
         <v>27.2</v>
       </c>
       <c r="K163" t="n">
-        <v>-17.39130434782623</v>
+        <v>6.66666666666654</v>
       </c>
       <c r="L163" t="n">
         <v>47.82999999999995</v>
@@ -8592,7 +8614,7 @@
         <v>27.5</v>
       </c>
       <c r="K164" t="n">
-        <v>-13.63636363636372</v>
+        <v>18.51851851851859</v>
       </c>
       <c r="L164" t="n">
         <v>47.81999999999995</v>
@@ -8643,7 +8665,7 @@
         <v>27.6</v>
       </c>
       <c r="K165" t="n">
-        <v>-18.18181818181834</v>
+        <v>11.11111111111105</v>
       </c>
       <c r="L165" t="n">
         <v>47.85999999999994</v>
@@ -8694,7 +8716,7 @@
         <v>27.6</v>
       </c>
       <c r="K166" t="n">
-        <v>-18.18181818181834</v>
+        <v>20.00000000000011</v>
       </c>
       <c r="L166" t="n">
         <v>47.88999999999994</v>
@@ -8745,7 +8767,7 @@
         <v>28</v>
       </c>
       <c r="K167" t="n">
-        <v>-21.7391304347827</v>
+        <v>11.11111111111105</v>
       </c>
       <c r="L167" t="n">
         <v>47.89999999999994</v>
@@ -8796,7 +8818,7 @@
         <v>28</v>
       </c>
       <c r="K168" t="n">
-        <v>-16.27906976744199</v>
+        <v>-26.31578947368433</v>
       </c>
       <c r="L168" t="n">
         <v>47.92999999999994</v>
@@ -8847,7 +8869,7 @@
         <v>28.2</v>
       </c>
       <c r="K169" t="n">
-        <v>-18.18181818181834</v>
+        <v>-55.55555555555565</v>
       </c>
       <c r="L169" t="n">
         <v>47.85999999999994</v>
@@ -8898,7 +8920,7 @@
         <v>28.2</v>
       </c>
       <c r="K170" t="n">
-        <v>-23.80952380952387</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L170" t="n">
         <v>47.75999999999994</v>
@@ -8949,7 +8971,7 @@
         <v>28.60000000000001</v>
       </c>
       <c r="K171" t="n">
-        <v>-13.04347826086946</v>
+        <v>-17.64705882352921</v>
       </c>
       <c r="L171" t="n">
         <v>47.73999999999994</v>
@@ -9000,7 +9022,7 @@
         <v>28.80000000000001</v>
       </c>
       <c r="K172" t="n">
-        <v>-13.04347826086959</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L172" t="n">
         <v>47.68999999999994</v>
@@ -9051,7 +9073,7 @@
         <v>29.10000000000001</v>
       </c>
       <c r="K173" t="n">
-        <v>-6.122448979591925</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L173" t="n">
         <v>47.63999999999994</v>
@@ -9102,7 +9124,7 @@
         <v>29.2</v>
       </c>
       <c r="K174" t="n">
-        <v>-7.999999999999983</v>
+        <v>-12.49999999999972</v>
       </c>
       <c r="L174" t="n">
         <v>47.60999999999994</v>
@@ -9153,7 +9175,7 @@
         <v>29.2</v>
       </c>
       <c r="K175" t="n">
-        <v>4.54545454545462</v>
+        <v>-12.49999999999972</v>
       </c>
       <c r="L175" t="n">
         <v>47.58999999999994</v>
@@ -9204,7 +9226,7 @@
         <v>29.2</v>
       </c>
       <c r="K176" t="n">
-        <v>2.325581395348876</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L176" t="n">
         <v>47.56999999999995</v>
@@ -9255,7 +9277,7 @@
         <v>29.2</v>
       </c>
       <c r="K177" t="n">
-        <v>7.317073170731835</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L177" t="n">
         <v>47.58999999999995</v>
@@ -9306,7 +9328,7 @@
         <v>29.2</v>
       </c>
       <c r="K178" t="n">
-        <v>12.82051282051285</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L178" t="n">
         <v>47.60999999999996</v>
@@ -9357,7 +9379,7 @@
         <v>29.60000000000001</v>
       </c>
       <c r="K179" t="n">
-        <v>-20.00000000000008</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>47.60999999999995</v>
@@ -9408,7 +9430,7 @@
         <v>29.70000000000001</v>
       </c>
       <c r="K180" t="n">
-        <v>-27.27272727272719</v>
+        <v>-27.27272727272763</v>
       </c>
       <c r="L180" t="n">
         <v>47.61999999999995</v>
@@ -9459,7 +9481,7 @@
         <v>29.70000000000001</v>
       </c>
       <c r="K181" t="n">
-        <v>-17.24137931034479</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L181" t="n">
         <v>47.58999999999996</v>
@@ -9510,7 +9532,7 @@
         <v>29.80000000000001</v>
       </c>
       <c r="K182" t="n">
-        <v>-17.24137931034479</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L182" t="n">
         <v>47.58999999999996</v>
@@ -9561,7 +9583,7 @@
         <v>30.10000000000001</v>
       </c>
       <c r="K183" t="n">
-        <v>-37.93103448275835</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L183" t="n">
         <v>47.52999999999997</v>
@@ -9612,7 +9634,7 @@
         <v>30.10000000000001</v>
       </c>
       <c r="K184" t="n">
-        <v>-30.76923076923056</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L184" t="n">
         <v>47.47999999999997</v>
@@ -9663,7 +9685,7 @@
         <v>30.20000000000001</v>
       </c>
       <c r="K185" t="n">
-        <v>-30.76923076923056</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L185" t="n">
         <v>47.41999999999997</v>
@@ -9714,7 +9736,7 @@
         <v>30.30000000000001</v>
       </c>
       <c r="K186" t="n">
-        <v>-33.33333333333316</v>
+        <v>-63.6363636363634</v>
       </c>
       <c r="L186" t="n">
         <v>47.34999999999996</v>
@@ -9765,7 +9787,7 @@
         <v>30.40000000000001</v>
       </c>
       <c r="K187" t="n">
-        <v>-16.66666666666652</v>
+        <v>-49.99999999999971</v>
       </c>
       <c r="L187" t="n">
         <v>47.28999999999996</v>
@@ -9816,7 +9838,7 @@
         <v>30.90000000000001</v>
       </c>
       <c r="K188" t="n">
-        <v>3.448275862068999</v>
+        <v>23.07692307692333</v>
       </c>
       <c r="L188" t="n">
         <v>47.27999999999996</v>
@@ -9867,7 +9889,7 @@
         <v>30.90000000000001</v>
       </c>
       <c r="K189" t="n">
-        <v>11.11111111111123</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L189" t="n">
         <v>47.30999999999995</v>
@@ -9918,7 +9940,7 @@
         <v>31.10000000000001</v>
       </c>
       <c r="K190" t="n">
-        <v>17.24137931034479</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L190" t="n">
         <v>47.34999999999995</v>
@@ -9969,7 +9991,7 @@
         <v>31.40000000000001</v>
       </c>
       <c r="K191" t="n">
-        <v>-7.142857142857252</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>47.35999999999996</v>
@@ -10020,7 +10042,7 @@
         <v>31.50000000000001</v>
       </c>
       <c r="K192" t="n">
-        <v>-3.703703703703762</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L192" t="n">
         <v>47.34999999999995</v>
@@ -10071,7 +10093,7 @@
         <v>31.50000000000001</v>
       </c>
       <c r="K193" t="n">
-        <v>-16.66666666666662</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L193" t="n">
         <v>47.36999999999995</v>
@@ -10122,7 +10144,7 @@
         <v>31.7</v>
       </c>
       <c r="K194" t="n">
-        <v>-20</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L194" t="n">
         <v>47.36999999999995</v>
@@ -10173,7 +10195,7 @@
         <v>31.9</v>
       </c>
       <c r="K195" t="n">
-        <v>-11.11111111111129</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L195" t="n">
         <v>47.39999999999996</v>
@@ -10224,7 +10246,7 @@
         <v>31.9</v>
       </c>
       <c r="K196" t="n">
-        <v>-11.11111111111129</v>
+        <v>20</v>
       </c>
       <c r="L196" t="n">
         <v>47.43999999999996</v>
@@ -10275,7 +10297,7 @@
         <v>32</v>
       </c>
       <c r="K197" t="n">
-        <v>-7.142857142857252</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L197" t="n">
         <v>47.47999999999995</v>
@@ -10326,7 +10348,7 @@
         <v>32.1</v>
       </c>
       <c r="K198" t="n">
-        <v>-10.34482758620705</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L198" t="n">
         <v>47.45999999999994</v>
@@ -10377,7 +10399,7 @@
         <v>32.2</v>
       </c>
       <c r="K199" t="n">
-        <v>7.692307692307819</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L199" t="n">
         <v>47.44999999999995</v>
@@ -10428,7 +10450,7 @@
         <v>32.2</v>
       </c>
       <c r="K200" t="n">
-        <v>4.000000000000068</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>47.41999999999994</v>
@@ -10479,7 +10501,7 @@
         <v>32.8</v>
       </c>
       <c r="K201" t="n">
-        <v>22.58064516129046</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L201" t="n">
         <v>47.47999999999994</v>
@@ -10530,7 +10552,7 @@
         <v>33.10000000000001</v>
       </c>
       <c r="K202" t="n">
-        <v>9.090909090909012</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L202" t="n">
         <v>47.51999999999994</v>
@@ -10581,7 +10603,7 @@
         <v>33.10000000000001</v>
       </c>
       <c r="K203" t="n">
-        <v>19.99999999999981</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L203" t="n">
         <v>47.55999999999993</v>
@@ -10632,7 +10654,7 @@
         <v>33.10000000000001</v>
       </c>
       <c r="K204" t="n">
-        <v>19.99999999999981</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L204" t="n">
         <v>47.61999999999993</v>
@@ -10683,7 +10705,7 @@
         <v>33.50000000000001</v>
       </c>
       <c r="K205" t="n">
-        <v>9.090909090909012</v>
+        <v>0</v>
       </c>
       <c r="L205" t="n">
         <v>47.61999999999993</v>
@@ -10734,7 +10756,7 @@
         <v>33.7</v>
       </c>
       <c r="K206" t="n">
-        <v>5.882352941176569</v>
+        <v>-17.64705882352921</v>
       </c>
       <c r="L206" t="n">
         <v>47.59999999999994</v>
@@ -10785,7 +10807,7 @@
         <v>33.8</v>
       </c>
       <c r="K207" t="n">
-        <v>5.882352941176372</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L207" t="n">
         <v>47.57999999999994</v>
@@ -10836,7 +10858,7 @@
         <v>33.89999999999999</v>
       </c>
       <c r="K208" t="n">
-        <v>-13.33333333333338</v>
+        <v>-17.64705882352936</v>
       </c>
       <c r="L208" t="n">
         <v>47.55999999999995</v>
@@ -10887,7 +10909,7 @@
         <v>33.99999999999999</v>
       </c>
       <c r="K209" t="n">
-        <v>-9.677419354838932</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L209" t="n">
         <v>47.53999999999994</v>
@@ -10938,7 +10960,7 @@
         <v>33.99999999999999</v>
       </c>
       <c r="K210" t="n">
-        <v>-17.24137931034496</v>
+        <v>-66.66666666666805</v>
       </c>
       <c r="L210" t="n">
         <v>47.51999999999994</v>
@@ -10989,7 +11011,7 @@
         <v>34.09999999999998</v>
       </c>
       <c r="K211" t="n">
-        <v>-11.11111111111111</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L211" t="n">
         <v>47.42999999999994</v>
@@ -11040,7 +11062,7 @@
         <v>34.09999999999998</v>
       </c>
       <c r="K212" t="n">
-        <v>-7.692307692307608</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L212" t="n">
         <v>47.36999999999994</v>
@@ -11091,7 +11113,7 @@
         <v>34.29999999999998</v>
       </c>
       <c r="K213" t="n">
-        <v>-14.28571428571436</v>
+        <v>-66.66666666666785</v>
       </c>
       <c r="L213" t="n">
         <v>47.28999999999994</v>
@@ -11142,7 +11164,7 @@
         <v>34.29999999999998</v>
       </c>
       <c r="K214" t="n">
-        <v>-7.69230769230786</v>
+        <v>-50.00000000000134</v>
       </c>
       <c r="L214" t="n">
         <v>47.20999999999994</v>
@@ -11193,7 +11215,7 @@
         <v>34.39999999999998</v>
       </c>
       <c r="K215" t="n">
-        <v>-20.00000000000011</v>
+        <v>-42.85714285714459</v>
       </c>
       <c r="L215" t="n">
         <v>47.15999999999995</v>
@@ -11244,7 +11266,7 @@
         <v>34.49999999999999</v>
       </c>
       <c r="K216" t="n">
-        <v>-15.3846153846154</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L216" t="n">
         <v>47.13999999999994</v>
@@ -11295,7 +11317,7 @@
         <v>34.49999999999999</v>
       </c>
       <c r="K217" t="n">
-        <v>-20.00000000000011</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L217" t="n">
         <v>47.10999999999994</v>
@@ -11346,7 +11368,7 @@
         <v>34.59999999999999</v>
       </c>
       <c r="K218" t="n">
-        <v>-11.99999999999996</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L218" t="n">
         <v>47.09999999999994</v>
@@ -11397,7 +11419,7 @@
         <v>34.79999999999998</v>
       </c>
       <c r="K219" t="n">
-        <v>-7.69230769230786</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>47.09999999999994</v>
@@ -11448,7 +11470,7 @@
         <v>34.99999999999999</v>
       </c>
       <c r="K220" t="n">
-        <v>0</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L220" t="n">
         <v>47.11999999999993</v>
@@ -11499,7 +11521,7 @@
         <v>34.99999999999999</v>
       </c>
       <c r="K221" t="n">
-        <v>-27.27272727272756</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L221" t="n">
         <v>47.14999999999993</v>
@@ -11550,7 +11572,7 @@
         <v>35.29999999999998</v>
       </c>
       <c r="K222" t="n">
-        <v>-27.27272727272733</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L222" t="n">
         <v>47.14999999999993</v>
@@ -11601,7 +11623,7 @@
         <v>35.39999999999998</v>
       </c>
       <c r="K223" t="n">
-        <v>-30.43478260869579</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L223" t="n">
         <v>47.15999999999993</v>
@@ -11652,7 +11674,7 @@
         <v>35.49999999999999</v>
       </c>
       <c r="K224" t="n">
-        <v>-25</v>
+        <v>27.27272727272763</v>
       </c>
       <c r="L224" t="n">
         <v>47.17999999999994</v>
@@ -11703,7 +11725,7 @@
         <v>35.59999999999998</v>
       </c>
       <c r="K225" t="n">
-        <v>-4.761904761904891</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L225" t="n">
         <v>47.21999999999993</v>
@@ -11754,7 +11776,7 @@
         <v>36.09999999999998</v>
       </c>
       <c r="K226" t="n">
-        <v>-16.66666666666706</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L226" t="n">
         <v>47.19999999999993</v>
@@ -11805,7 +11827,7 @@
         <v>36.09999999999998</v>
       </c>
       <c r="K227" t="n">
-        <v>-21.73913043478277</v>
+        <v>-20.00000000000038</v>
       </c>
       <c r="L227" t="n">
         <v>47.17999999999993</v>
@@ -11856,7 +11878,7 @@
         <v>36.19999999999998</v>
       </c>
       <c r="K228" t="n">
-        <v>-13.04347826086981</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L228" t="n">
         <v>47.15999999999993</v>
@@ -11907,7 +11929,7 @@
         <v>36.39999999999998</v>
       </c>
       <c r="K229" t="n">
-        <v>-8.333333333333162</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L229" t="n">
         <v>47.13999999999992</v>
@@ -11958,7 +11980,7 @@
         <v>36.49999999999999</v>
       </c>
       <c r="K230" t="n">
-        <v>-11.99999999999989</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L230" t="n">
         <v>47.08999999999992</v>
@@ -12009,7 +12031,7 @@
         <v>36.79999999999998</v>
       </c>
       <c r="K231" t="n">
-        <v>3.703703703703489</v>
+        <v>6.666666666666288</v>
       </c>
       <c r="L231" t="n">
         <v>47.06999999999992</v>
@@ -12060,7 +12082,7 @@
         <v>36.79999999999998</v>
       </c>
       <c r="K232" t="n">
-        <v>3.703703703703489</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L232" t="n">
         <v>47.07999999999991</v>
@@ -12111,7 +12133,7 @@
         <v>36.89999999999998</v>
       </c>
       <c r="K233" t="n">
-        <v>7.692307692307819</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>47.0899999999999</v>
@@ -12162,7 +12184,7 @@
         <v>36.89999999999998</v>
       </c>
       <c r="K234" t="n">
-        <v>7.692307692307819</v>
+        <v>-7.692307692307272</v>
       </c>
       <c r="L234" t="n">
         <v>47.08999999999991</v>
@@ -12213,7 +12235,7 @@
         <v>37.09999999999998</v>
       </c>
       <c r="K235" t="n">
-        <v>3.703703703703762</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L235" t="n">
         <v>47.05999999999992</v>
@@ -12264,7 +12286,7 @@
         <v>37.19999999999998</v>
       </c>
       <c r="K236" t="n">
-        <v>3.703703703703762</v>
+        <v>27.27272727272763</v>
       </c>
       <c r="L236" t="n">
         <v>47.08999999999991</v>
@@ -12315,7 +12337,7 @@
         <v>37.49999999999999</v>
       </c>
       <c r="K237" t="n">
-        <v>-6.666666666666761</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L237" t="n">
         <v>47.08999999999991</v>
@@ -12366,7 +12388,7 @@
         <v>37.89999999999999</v>
       </c>
       <c r="K238" t="n">
-        <v>3.03030303030307</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L238" t="n">
         <v>47.11999999999991</v>
@@ -12417,7 +12439,7 @@
         <v>37.89999999999999</v>
       </c>
       <c r="K239" t="n">
-        <v>-3.225806451612711</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L239" t="n">
         <v>47.12999999999992</v>
@@ -12468,7 +12490,7 @@
         <v>38.09999999999999</v>
       </c>
       <c r="K240" t="n">
-        <v>-16.12903225806447</v>
+        <v>-23.07692307692266</v>
       </c>
       <c r="L240" t="n">
         <v>47.12999999999992</v>
@@ -12519,7 +12541,7 @@
         <v>38.3</v>
       </c>
       <c r="K241" t="n">
-        <v>-9.090909090908973</v>
+        <v>-6.666666666666224</v>
       </c>
       <c r="L241" t="n">
         <v>47.11999999999992</v>
@@ -12570,7 +12592,7 @@
         <v>38.59999999999999</v>
       </c>
       <c r="K242" t="n">
-        <v>9.090909090908973</v>
+        <v>17.64705882352907</v>
       </c>
       <c r="L242" t="n">
         <v>47.13999999999992</v>
@@ -12621,7 +12643,7 @@
         <v>38.59999999999999</v>
       </c>
       <c r="K243" t="n">
-        <v>12.49999999999992</v>
+        <v>17.64705882352907</v>
       </c>
       <c r="L243" t="n">
         <v>47.16999999999992</v>
@@ -12672,7 +12694,7 @@
         <v>38.89999999999999</v>
       </c>
       <c r="K244" t="n">
-        <v>17.64705882352921</v>
+        <v>44.444444444444</v>
       </c>
       <c r="L244" t="n">
         <v>47.22999999999992</v>
@@ -12723,7 +12745,7 @@
         <v>39.09999999999999</v>
       </c>
       <c r="K245" t="n">
-        <v>20</v>
+        <v>47.36842105263118</v>
       </c>
       <c r="L245" t="n">
         <v>47.32999999999993</v>
@@ -12774,7 +12796,7 @@
         <v>39.2</v>
       </c>
       <c r="K246" t="n">
-        <v>41.93548387096767</v>
+        <v>76.47058823529392</v>
       </c>
       <c r="L246" t="n">
         <v>47.42999999999993</v>
@@ -12825,7 +12847,7 @@
         <v>39.49999999999999</v>
       </c>
       <c r="K247" t="n">
-        <v>47.05882352941163</v>
+        <v>74.99999999999967</v>
       </c>
       <c r="L247" t="n">
         <v>47.58999999999993</v>
@@ -12876,7 +12898,7 @@
         <v>39.79999999999999</v>
       </c>
       <c r="K248" t="n">
-        <v>33.33333333333333</v>
+        <v>47.36842105263154</v>
       </c>
       <c r="L248" t="n">
         <v>47.67999999999992</v>
@@ -12927,7 +12949,7 @@
         <v>39.89999999999999</v>
       </c>
       <c r="K249" t="n">
-        <v>25.71428571428562</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L249" t="n">
         <v>47.75999999999993</v>
@@ -12978,7 +13000,7 @@
         <v>39.89999999999999</v>
       </c>
       <c r="K250" t="n">
-        <v>29.41176470588231</v>
+        <v>50</v>
       </c>
       <c r="L250" t="n">
         <v>47.85999999999992</v>
@@ -13029,7 +13051,7 @@
         <v>40.19999999999999</v>
       </c>
       <c r="K251" t="n">
-        <v>29.41176470588231</v>
+        <v>50</v>
       </c>
       <c r="L251" t="n">
         <v>47.96999999999992</v>
@@ -13080,7 +13102,7 @@
         <v>40.29999999999998</v>
       </c>
       <c r="K252" t="n">
-        <v>25.71428571428588</v>
+        <v>41.17647058823574</v>
       </c>
       <c r="L252" t="n">
         <v>48.03999999999992</v>
@@ -13131,7 +13153,7 @@
         <v>40.49999999999999</v>
       </c>
       <c r="K253" t="n">
-        <v>22.22222222222209</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L253" t="n">
         <v>48.08999999999992</v>
@@ -13182,7 +13204,7 @@
         <v>40.49999999999999</v>
       </c>
       <c r="K254" t="n">
-        <v>22.22222222222209</v>
+        <v>0</v>
       </c>
       <c r="L254" t="n">
         <v>48.10999999999991</v>
@@ -13233,7 +13255,7 @@
         <v>40.49999999999999</v>
       </c>
       <c r="K255" t="n">
-        <v>29.41176470588231</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L255" t="n">
         <v>48.10999999999992</v>
@@ -13284,7 +13306,7 @@
         <v>40.89999999999998</v>
       </c>
       <c r="K256" t="n">
-        <v>35.13513513513503</v>
+        <v>0</v>
       </c>
       <c r="L256" t="n">
         <v>48.13999999999992</v>
@@ -13335,7 +13357,7 @@
         <v>40.99999999999999</v>
       </c>
       <c r="K257" t="n">
-        <v>48.57142857142865</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L257" t="n">
         <v>48.14999999999992</v>
@@ -13386,7 +13408,7 @@
         <v>40.99999999999999</v>
       </c>
       <c r="K258" t="n">
-        <v>41.93548387096773</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L258" t="n">
         <v>48.18999999999992</v>
@@ -13437,7 +13459,7 @@
         <v>40.99999999999999</v>
       </c>
       <c r="K259" t="n">
-        <v>41.93548387096773</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L259" t="n">
         <v>48.23999999999992</v>
@@ -13488,7 +13510,7 @@
         <v>41.19999999999999</v>
       </c>
       <c r="K260" t="n">
-        <v>54.83870967741955</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L260" t="n">
         <v>48.30999999999992</v>
@@ -13539,7 +13561,7 @@
         <v>41.29999999999998</v>
       </c>
       <c r="K261" t="n">
-        <v>53.3333333333334</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L261" t="n">
         <v>48.35999999999991</v>
@@ -13590,7 +13612,7 @@
         <v>41.29999999999998</v>
       </c>
       <c r="K262" t="n">
-        <v>48.14814814814824</v>
+        <v>100</v>
       </c>
       <c r="L262" t="n">
         <v>48.41999999999992</v>
@@ -13641,7 +13663,7 @@
         <v>41.69999999999999</v>
       </c>
       <c r="K263" t="n">
-        <v>54.83870967741955</v>
+        <v>100</v>
       </c>
       <c r="L263" t="n">
         <v>48.53999999999992</v>
@@ -13692,7 +13714,7 @@
         <v>41.69999999999999</v>
       </c>
       <c r="K264" t="n">
-        <v>50.00000000000026</v>
+        <v>100</v>
       </c>
       <c r="L264" t="n">
         <v>48.65999999999993</v>
@@ -13743,7 +13765,7 @@
         <v>41.79999999999998</v>
       </c>
       <c r="K265" t="n">
-        <v>48.14814814814824</v>
+        <v>100</v>
       </c>
       <c r="L265" t="n">
         <v>48.78999999999992</v>
@@ -13794,7 +13816,7 @@
         <v>41.89999999999998</v>
       </c>
       <c r="K266" t="n">
-        <v>48.14814814814824</v>
+        <v>100</v>
       </c>
       <c r="L266" t="n">
         <v>48.88999999999992</v>
@@ -13845,7 +13867,7 @@
         <v>42.29999999999998</v>
       </c>
       <c r="K267" t="n">
-        <v>50.00000000000012</v>
+        <v>100</v>
       </c>
       <c r="L267" t="n">
         <v>49.01999999999991</v>
@@ -13896,7 +13918,7 @@
         <v>42.39999999999998</v>
       </c>
       <c r="K268" t="n">
-        <v>69.23076923076927</v>
+        <v>100</v>
       </c>
       <c r="L268" t="n">
         <v>49.15999999999991</v>
@@ -13947,7 +13969,7 @@
         <v>42.69999999999999</v>
       </c>
       <c r="K269" t="n">
-        <v>78.57142857142875</v>
+        <v>100</v>
       </c>
       <c r="L269" t="n">
         <v>49.32999999999991</v>
@@ -13998,7 +14020,7 @@
         <v>42.79999999999998</v>
       </c>
       <c r="K270" t="n">
-        <v>79.31034482758635</v>
+        <v>100</v>
       </c>
       <c r="L270" t="n">
         <v>49.48999999999991</v>
@@ -14049,7 +14071,7 @@
         <v>42.89999999999998</v>
       </c>
       <c r="K271" t="n">
-        <v>70.37037037037088</v>
+        <v>87.50000000000067</v>
       </c>
       <c r="L271" t="n">
         <v>49.62999999999991</v>
@@ -14100,7 +14122,7 @@
         <v>42.89999999999998</v>
       </c>
       <c r="K272" t="n">
-        <v>76.92307692307709</v>
+        <v>83.33333333333412</v>
       </c>
       <c r="L272" t="n">
         <v>49.76999999999991</v>
@@ -14151,7 +14173,7 @@
         <v>43.59999999999998</v>
       </c>
       <c r="K273" t="n">
-        <v>48.38709677419364</v>
+        <v>15.78947368421045</v>
       </c>
       <c r="L273" t="n">
         <v>49.79999999999991</v>
@@ -14202,7 +14224,7 @@
         <v>43.99999999999998</v>
       </c>
       <c r="K274" t="n">
-        <v>54.28571428571436</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L274" t="n">
         <v>49.86999999999992</v>
@@ -14253,7 +14275,7 @@
         <v>44.39999999999998</v>
       </c>
       <c r="K275" t="n">
-        <v>38.46153846153855</v>
+        <v>4.000000000000068</v>
       </c>
       <c r="L275" t="n">
         <v>49.88999999999992</v>
@@ -14304,7 +14326,7 @@
         <v>44.49999999999998</v>
       </c>
       <c r="K276" t="n">
-        <v>33.33333333333346</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L276" t="n">
         <v>49.90999999999991</v>
@@ -14355,7 +14377,7 @@
         <v>44.69999999999998</v>
       </c>
       <c r="K277" t="n">
-        <v>24.32432432432432</v>
+        <v>-21.73913043478263</v>
       </c>
       <c r="L277" t="n">
         <v>49.86999999999991</v>
@@ -14406,7 +14428,7 @@
         <v>44.79999999999998</v>
       </c>
       <c r="K278" t="n">
-        <v>26.31578947368423</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L278" t="n">
         <v>49.82999999999991</v>
@@ -14457,7 +14479,7 @@
         <v>44.79999999999998</v>
       </c>
       <c r="K279" t="n">
-        <v>26.31578947368423</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L279" t="n">
         <v>49.75999999999992</v>
@@ -14508,7 +14530,7 @@
         <v>44.79999999999998</v>
       </c>
       <c r="K280" t="n">
-        <v>22.22222222222218</v>
+        <v>-36.84210526315793</v>
       </c>
       <c r="L280" t="n">
         <v>49.67999999999992</v>
@@ -14559,7 +14581,7 @@
         <v>44.79999999999998</v>
       </c>
       <c r="K281" t="n">
-        <v>20.00000000000008</v>
+        <v>-36.84210526315793</v>
       </c>
       <c r="L281" t="n">
         <v>49.60999999999993</v>
@@ -14610,7 +14632,7 @@
         <v>44.79999999999998</v>
       </c>
       <c r="K282" t="n">
-        <v>20.00000000000008</v>
+        <v>0</v>
       </c>
       <c r="L282" t="n">
         <v>49.53999999999992</v>
@@ -14661,7 +14683,7 @@
         <v>44.79999999999998</v>
       </c>
       <c r="K283" t="n">
-        <v>9.677419354838635</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L283" t="n">
         <v>49.53999999999992</v>
@@ -14712,7 +14734,7 @@
         <v>44.89999999999998</v>
       </c>
       <c r="K284" t="n">
-        <v>12.49999999999997</v>
+        <v>20</v>
       </c>
       <c r="L284" t="n">
         <v>49.50999999999992</v>
@@ -14763,7 +14785,7 @@
         <v>44.99999999999999</v>
       </c>
       <c r="K285" t="n">
-        <v>6.250000000000083</v>
+        <v>-20</v>
       </c>
       <c r="L285" t="n">
         <v>49.50999999999992</v>
@@ -14814,7 +14836,7 @@
         <v>45.19999999999999</v>
       </c>
       <c r="K286" t="n">
-        <v>9.090909090909207</v>
+        <v>60</v>
       </c>
       <c r="L286" t="n">
         <v>49.51999999999992</v>
@@ -14865,7 +14887,7 @@
         <v>45.29999999999998</v>
       </c>
       <c r="K287" t="n">
-        <v>0</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L287" t="n">
         <v>49.55999999999992</v>
@@ -14916,7 +14938,7 @@
         <v>45.59999999999999</v>
       </c>
       <c r="K288" t="n">
-        <v>6.250000000000083</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L288" t="n">
         <v>49.61999999999993</v>
@@ -14967,7 +14989,7 @@
         <v>45.79999999999999</v>
       </c>
       <c r="K289" t="n">
-        <v>-9.677419354838843</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L289" t="n">
         <v>49.65999999999993</v>
@@ -15018,7 +15040,7 @@
         <v>46.09999999999999</v>
       </c>
       <c r="K290" t="n">
-        <v>-3.030303030302848</v>
+        <v>53.8461538461536</v>
       </c>
       <c r="L290" t="n">
         <v>49.72999999999993</v>
@@ -15069,7 +15091,7 @@
         <v>46.3</v>
       </c>
       <c r="K291" t="n">
-        <v>-5.88235294117652</v>
+        <v>33.33333333333302</v>
       </c>
       <c r="L291" t="n">
         <v>49.77999999999993</v>
@@ -15120,7 +15142,7 @@
         <v>46.4</v>
       </c>
       <c r="K292" t="n">
-        <v>-2.85714285714288</v>
+        <v>37.49999999999972</v>
       </c>
       <c r="L292" t="n">
         <v>49.83999999999993</v>
@@ -15171,7 +15193,7 @@
         <v>46.5</v>
       </c>
       <c r="K293" t="n">
-        <v>24.13793103448269</v>
+        <v>37.49999999999972</v>
       </c>
       <c r="L293" t="n">
         <v>49.90999999999993</v>
@@ -15222,7 +15244,7 @@
         <v>46.8</v>
       </c>
       <c r="K294" t="n">
-        <v>21.42857142857134</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L294" t="n">
         <v>49.99999999999993</v>
@@ -15273,7 +15295,7 @@
         <v>46.8</v>
       </c>
       <c r="K295" t="n">
-        <v>41.66666666666632</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L295" t="n">
         <v>50.09999999999993</v>
@@ -15324,7 +15346,7 @@
         <v>47.09999999999999</v>
       </c>
       <c r="K296" t="n">
-        <v>23.07692307692299</v>
+        <v>22.2222222222224</v>
       </c>
       <c r="L296" t="n">
         <v>50.14999999999993</v>
@@ -15375,7 +15397,7 @@
         <v>47.39999999999999</v>
       </c>
       <c r="K297" t="n">
-        <v>40.74074074074064</v>
+        <v>22.22222222222209</v>
       </c>
       <c r="L297" t="n">
         <v>50.21999999999993</v>
@@ -15426,7 +15448,7 @@
         <v>47.49999999999999</v>
       </c>
       <c r="K298" t="n">
-        <v>33.33333333333316</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L298" t="n">
         <v>50.24999999999993</v>
@@ -15477,7 +15499,7 @@
         <v>47.7</v>
       </c>
       <c r="K299" t="n">
-        <v>37.93103448275851</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L299" t="n">
         <v>50.31999999999994</v>
@@ -15528,7 +15550,7 @@
         <v>48.09999999999999</v>
       </c>
       <c r="K300" t="n">
-        <v>45.4545454545453</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L300" t="n">
         <v>50.39999999999993</v>
@@ -15579,7 +15601,7 @@
         <v>48.59999999999999</v>
       </c>
       <c r="K301" t="n">
-        <v>52.63157894736826</v>
+        <v>63.63636363636369</v>
       </c>
       <c r="L301" t="n">
         <v>50.54999999999993</v>
@@ -15630,7 +15652,7 @@
         <v>48.59999999999999</v>
       </c>
       <c r="K302" t="n">
-        <v>52.63157894736826</v>
+        <v>61.90476190476194</v>
       </c>
       <c r="L302" t="n">
         <v>50.68999999999993</v>
@@ -15681,7 +15703,7 @@
         <v>48.7</v>
       </c>
       <c r="K303" t="n">
-        <v>53.84615384615371</v>
+        <v>57.89473684210537</v>
       </c>
       <c r="L303" t="n">
         <v>50.82999999999993</v>
@@ -15732,7 +15754,7 @@
         <v>48.8</v>
       </c>
       <c r="K304" t="n">
-        <v>48.71794871794852</v>
+        <v>50</v>
       </c>
       <c r="L304" t="n">
         <v>50.92999999999993</v>
@@ -15783,7 +15805,7 @@
         <v>49.2</v>
       </c>
       <c r="K305" t="n">
-        <v>38.09523809523804</v>
+        <v>42.85714285714276</v>
       </c>
       <c r="L305" t="n">
         <v>50.98999999999993</v>
@@ -15834,7 +15856,7 @@
         <v>49.89999999999999</v>
       </c>
       <c r="K306" t="n">
-        <v>44.68085106382964</v>
+        <v>51.99999999999989</v>
       </c>
       <c r="L306" t="n">
         <v>51.14999999999993</v>
@@ -15885,7 +15907,7 @@
         <v>49.89999999999999</v>
       </c>
       <c r="K307" t="n">
-        <v>43.47826086956514</v>
+        <v>58.3333333333333</v>
       </c>
       <c r="L307" t="n">
         <v>51.27999999999993</v>
@@ -15936,7 +15958,7 @@
         <v>49.89999999999999</v>
       </c>
       <c r="K308" t="n">
-        <v>39.53488372093009</v>
+        <v>54.54545454545445</v>
       </c>
       <c r="L308" t="n">
         <v>51.41999999999992</v>
@@ -15987,7 +16009,7 @@
         <v>49.89999999999999</v>
       </c>
       <c r="K309" t="n">
-        <v>46.34146341463409</v>
+        <v>44.44444444444436</v>
       </c>
       <c r="L309" t="n">
         <v>51.53999999999992</v>
@@ -16038,7 +16060,7 @@
         <v>49.89999999999999</v>
       </c>
       <c r="K310" t="n">
-        <v>42.10526315789462</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L310" t="n">
         <v>51.61999999999991</v>
@@ -16089,7 +16111,7 @@
         <v>50.19999999999999</v>
       </c>
       <c r="K311" t="n">
-        <v>38.46153846153855</v>
+        <v>0</v>
       </c>
       <c r="L311" t="n">
         <v>51.61999999999991</v>
@@ -16140,7 +16162,7 @@
         <v>50.39999999999999</v>
       </c>
       <c r="K312" t="n">
-        <v>29.99999999999995</v>
+        <v>-17.64705882352971</v>
       </c>
       <c r="L312" t="n">
         <v>51.59999999999991</v>
@@ -16191,7 +16213,7 @@
         <v>50.99999999999999</v>
       </c>
       <c r="K313" t="n">
-        <v>11.11111111111115</v>
+        <v>-36.36363636363642</v>
       </c>
       <c r="L313" t="n">
         <v>51.50999999999991</v>
@@ -16242,7 +16264,7 @@
         <v>51.09999999999998</v>
       </c>
       <c r="K314" t="n">
-        <v>6.976744186046473</v>
+        <v>-15.78947368421088</v>
       </c>
       <c r="L314" t="n">
         <v>51.43999999999991</v>
@@ -16293,7 +16315,7 @@
         <v>51.09999999999998</v>
       </c>
       <c r="K315" t="n">
-        <v>6.976744186046473</v>
+        <v>-83.33333333333412</v>
       </c>
       <c r="L315" t="n">
         <v>51.4099999999999</v>
@@ -16344,7 +16366,7 @@
         <v>51.19999999999997</v>
       </c>
       <c r="K316" t="n">
-        <v>12.19512195121957</v>
+        <v>-84.6153846153853</v>
       </c>
       <c r="L316" t="n">
         <v>51.29999999999991</v>
@@ -16395,7 +16417,7 @@
         <v>51.19999999999997</v>
       </c>
       <c r="K317" t="n">
-        <v>5.26315789473694</v>
+        <v>-84.6153846153853</v>
       </c>
       <c r="L317" t="n">
         <v>51.18999999999991</v>
@@ -16446,7 +16468,7 @@
         <v>51.29999999999998</v>
       </c>
       <c r="K318" t="n">
-        <v>5.26315789473694</v>
+        <v>-85.71428571428636</v>
       </c>
       <c r="L318" t="n">
         <v>51.06999999999991</v>
@@ -16497,7 +16519,7 @@
         <v>51.29999999999998</v>
       </c>
       <c r="K319" t="n">
-        <v>0</v>
+        <v>-85.71428571428636</v>
       </c>
       <c r="L319" t="n">
         <v>50.9499999999999</v>
@@ -16548,7 +16570,7 @@
         <v>51.39999999999998</v>
       </c>
       <c r="K320" t="n">
-        <v>-15.15151515151523</v>
+        <v>-83.33333333333412</v>
       </c>
       <c r="L320" t="n">
         <v>50.81999999999991</v>
@@ -16599,7 +16621,7 @@
         <v>51.59999999999998</v>
       </c>
       <c r="K321" t="n">
-        <v>-40.00000000000028</v>
+        <v>-83.33333333333412</v>
       </c>
       <c r="L321" t="n">
         <v>50.69999999999991</v>
@@ -16650,7 +16672,7 @@
         <v>51.69999999999997</v>
       </c>
       <c r="K322" t="n">
-        <v>-41.93548387096792</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L322" t="n">
         <v>50.58999999999991</v>
@@ -16701,7 +16723,7 @@
         <v>51.69999999999997</v>
       </c>
       <c r="K323" t="n">
-        <v>-46.66666666666695</v>
+        <v>-100</v>
       </c>
       <c r="L323" t="n">
         <v>50.53999999999991</v>
@@ -16752,7 +16774,7 @@
         <v>51.69999999999997</v>
       </c>
       <c r="K324" t="n">
-        <v>-44.82758620689681</v>
+        <v>-100</v>
       </c>
       <c r="L324" t="n">
         <v>50.47999999999991</v>
@@ -16803,7 +16825,7 @@
         <v>51.89999999999998</v>
       </c>
       <c r="K325" t="n">
-        <v>-40.74074074074107</v>
+        <v>-100</v>
       </c>
       <c r="L325" t="n">
         <v>50.39999999999991</v>
@@ -16854,7 +16876,7 @@
         <v>52.49999999999998</v>
       </c>
       <c r="K326" t="n">
-        <v>-92.30769230769272</v>
+        <v>-100</v>
       </c>
       <c r="L326" t="n">
         <v>50.26999999999991</v>
@@ -16905,7 +16927,7 @@
         <v>52.59999999999998</v>
       </c>
       <c r="K327" t="n">
-        <v>-85.18518518518545</v>
+        <v>-84.61538461538444</v>
       </c>
       <c r="L327" t="n">
         <v>50.14999999999991</v>
@@ -16956,7 +16978,7 @@
         <v>53.29999999999998</v>
       </c>
       <c r="K328" t="n">
-        <v>-88.23529411764727</v>
+        <v>-89.99999999999989</v>
       </c>
       <c r="L328" t="n">
         <v>49.96999999999991</v>
@@ -17007,7 +17029,7 @@
         <v>53.99999999999998</v>
       </c>
       <c r="K329" t="n">
-        <v>-90.24390243902457</v>
+        <v>-92.30769230769221</v>
       </c>
       <c r="L329" t="n">
         <v>49.71999999999991</v>
@@ -17058,7 +17080,7 @@
         <v>54.49999999999998</v>
       </c>
       <c r="K330" t="n">
-        <v>-69.56521739130444</v>
+        <v>-58.6206896551723</v>
       </c>
       <c r="L330" t="n">
         <v>49.52999999999992</v>
@@ -17109,7 +17131,7 @@
         <v>54.59999999999998</v>
       </c>
       <c r="K331" t="n">
-        <v>-63.63636363636369</v>
+        <v>-51.72413793103438</v>
       </c>
       <c r="L331" t="n">
         <v>49.36999999999992</v>
@@ -17160,7 +17182,7 @@
         <v>54.89999999999998</v>
       </c>
       <c r="K332" t="n">
-        <v>-51.11111111111121</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L332" t="n">
         <v>49.24999999999991</v>
@@ -17211,7 +17233,7 @@
         <v>55.59999999999998</v>
       </c>
       <c r="K333" t="n">
-        <v>-21.73913043478263</v>
+        <v>-12.8205128205128</v>
       </c>
       <c r="L333" t="n">
         <v>49.19999999999992</v>
@@ -17262,7 +17284,7 @@
         <v>55.89999999999998</v>
       </c>
       <c r="K334" t="n">
-        <v>-29.16666666666661</v>
+        <v>-15.00000000000001</v>
       </c>
       <c r="L334" t="n">
         <v>49.11999999999992</v>
@@ -17313,7 +17335,7 @@
         <v>55.99999999999999</v>
       </c>
       <c r="K335" t="n">
-        <v>-26.53061224489787</v>
+        <v>2.857142857142892</v>
       </c>
       <c r="L335" t="n">
         <v>49.06999999999992</v>
@@ -17364,7 +17386,7 @@
         <v>56.29999999999998</v>
       </c>
       <c r="K336" t="n">
-        <v>-17.64705882352949</v>
+        <v>8.108108108108025</v>
       </c>
       <c r="L336" t="n">
         <v>49.10999999999991</v>
@@ -17415,7 +17437,7 @@
         <v>56.59999999999998</v>
       </c>
       <c r="K337" t="n">
-        <v>-22.22222222222225</v>
+        <v>21.21212121212131</v>
       </c>
       <c r="L337" t="n">
         <v>49.10999999999991</v>
@@ -17466,7 +17488,7 @@
         <v>56.89999999999998</v>
       </c>
       <c r="K338" t="n">
-        <v>-14.28571428571436</v>
+        <v>58.6206896551723</v>
       </c>
       <c r="L338" t="n">
         <v>49.20999999999991</v>
@@ -17517,7 +17539,7 @@
         <v>57.19999999999997</v>
       </c>
       <c r="K339" t="n">
-        <v>-18.6440677966102</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L339" t="n">
         <v>49.34999999999989</v>
@@ -17568,7 +17590,7 @@
         <v>57.29999999999998</v>
       </c>
       <c r="K340" t="n">
-        <v>-15.25423728813557</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L340" t="n">
         <v>49.4499999999999</v>
@@ -17619,7 +17641,7 @@
         <v>57.89999999999998</v>
       </c>
       <c r="K341" t="n">
-        <v>-20.6349206349206</v>
+        <v>0</v>
       </c>
       <c r="L341" t="n">
         <v>49.4799999999999</v>
@@ -17670,7 +17692,7 @@
         <v>57.99999999999998</v>
       </c>
       <c r="K342" t="n">
-        <v>-20.63492063492069</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L342" t="n">
         <v>49.4699999999999</v>
@@ -17721,7 +17743,7 @@
         <v>58.29999999999998</v>
       </c>
       <c r="K343" t="n">
-        <v>-24.24242424242426</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L343" t="n">
         <v>49.35999999999991</v>
@@ -17772,7 +17794,7 @@
         <v>58.29999999999998</v>
       </c>
       <c r="K344" t="n">
-        <v>-24.24242424242426</v>
+        <v>-39.1304347826088</v>
       </c>
       <c r="L344" t="n">
         <v>49.2799999999999</v>
@@ -17823,7 +17845,7 @@
         <v>58.39999999999998</v>
       </c>
       <c r="K345" t="n">
-        <v>-23.07692307692308</v>
+        <v>-61.90476190476194</v>
       </c>
       <c r="L345" t="n">
         <v>49.17999999999991</v>
@@ -17874,7 +17896,7 @@
         <v>58.49999999999998</v>
       </c>
       <c r="K346" t="n">
-        <v>-13.33333333333329</v>
+        <v>-47.36842105263154</v>
       </c>
       <c r="L346" t="n">
         <v>49.0599999999999</v>
@@ -17925,7 +17947,7 @@
         <v>58.49999999999998</v>
       </c>
       <c r="K347" t="n">
-        <v>-15.25423728813557</v>
+        <v>-74.99999999999967</v>
       </c>
       <c r="L347" t="n">
         <v>48.9699999999999</v>
@@ -17976,7 +17998,7 @@
         <v>58.49999999999998</v>
       </c>
       <c r="K348" t="n">
-        <v>-3.846153846153767</v>
+        <v>-69.2307692307689</v>
       </c>
       <c r="L348" t="n">
         <v>48.8499999999999</v>
@@ -18027,7 +18049,7 @@
         <v>58.49999999999998</v>
       </c>
       <c r="K349" t="n">
-        <v>11.11111111111111</v>
+        <v>-83.33333333333314</v>
       </c>
       <c r="L349" t="n">
         <v>48.7599999999999</v>
@@ -18078,7 +18100,7 @@
         <v>58.79999999999998</v>
       </c>
       <c r="K350" t="n">
-        <v>6.97674418604645</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L350" t="n">
         <v>48.6899999999999</v>
@@ -18129,7 +18151,7 @@
         <v>58.99999999999998</v>
       </c>
       <c r="K351" t="n">
-        <v>9.090909090909062</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L351" t="n">
         <v>48.6999999999999</v>
@@ -18180,7 +18202,7 @@
         <v>58.99999999999998</v>
       </c>
       <c r="K352" t="n">
-        <v>2.439024390243936</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L352" t="n">
         <v>48.7199999999999</v>
@@ -18231,7 +18253,7 @@
         <v>58.99999999999998</v>
       </c>
       <c r="K353" t="n">
-        <v>-17.64705882352946</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L353" t="n">
         <v>48.7699999999999</v>
@@ -18282,7 +18304,7 @@
         <v>59.09999999999998</v>
       </c>
       <c r="K354" t="n">
-        <v>-6.249999999999875</v>
+        <v>100</v>
       </c>
       <c r="L354" t="n">
         <v>48.82999999999991</v>
@@ -18333,7 +18355,7 @@
         <v>59.19999999999998</v>
       </c>
       <c r="K355" t="n">
-        <v>-12.49999999999997</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L355" t="n">
         <v>48.88999999999991</v>
@@ -18384,7 +18406,7 @@
         <v>59.39999999999998</v>
       </c>
       <c r="K356" t="n">
-        <v>-29.03225806451607</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L356" t="n">
         <v>48.9199999999999</v>
@@ -18435,7 +18457,7 @@
         <v>59.49999999999999</v>
       </c>
       <c r="K357" t="n">
-        <v>-24.13793103448281</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L357" t="n">
         <v>48.9399999999999</v>
@@ -18486,7 +18508,7 @@
         <v>59.59999999999998</v>
       </c>
       <c r="K358" t="n">
-        <v>-40.74074074074049</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L358" t="n">
         <v>48.9499999999999</v>
@@ -18537,7 +18559,7 @@
         <v>59.69999999999997</v>
       </c>
       <c r="K359" t="n">
-        <v>-28.00000000000011</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L359" t="n">
         <v>48.96999999999989</v>
@@ -18588,7 +18610,7 @@
         <v>59.79999999999998</v>
       </c>
       <c r="K360" t="n">
-        <v>-28.00000000000011</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L360" t="n">
         <v>48.96999999999989</v>
@@ -18639,7 +18661,7 @@
         <v>59.89999999999998</v>
       </c>
       <c r="K361" t="n">
-        <v>0</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L361" t="n">
         <v>48.95999999999989</v>
@@ -18690,7 +18712,7 @@
         <v>60.19999999999997</v>
       </c>
       <c r="K362" t="n">
-        <v>18.18181818181815</v>
+        <v>16.66666666666637</v>
       </c>
       <c r="L362" t="n">
         <v>48.97999999999988</v>
@@ -18741,7 +18763,7 @@
         <v>60.19999999999997</v>
       </c>
       <c r="K363" t="n">
-        <v>36.8421052631577</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L363" t="n">
         <v>48.99999999999987</v>
@@ -18792,7 +18814,7 @@
         <v>60.19999999999997</v>
       </c>
       <c r="K364" t="n">
-        <v>36.8421052631577</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L364" t="n">
         <v>49.00999999999987</v>
@@ -18843,7 +18865,7 @@
         <v>60.39999999999998</v>
       </c>
       <c r="K365" t="n">
-        <v>50</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L365" t="n">
         <v>49.04999999999988</v>
@@ -18894,7 +18916,7 @@
         <v>60.39999999999998</v>
       </c>
       <c r="K366" t="n">
-        <v>47.36842105263154</v>
+        <v>77.77777777777884</v>
       </c>
       <c r="L366" t="n">
         <v>49.10999999999988</v>
@@ -18945,7 +18967,7 @@
         <v>60.39999999999998</v>
       </c>
       <c r="K367" t="n">
-        <v>47.36842105263154</v>
+        <v>100</v>
       </c>
       <c r="L367" t="n">
         <v>49.17999999999988</v>
@@ -18996,7 +19018,7 @@
         <v>60.79999999999998</v>
       </c>
       <c r="K368" t="n">
-        <v>21.73913043478263</v>
+        <v>27.27272727272763</v>
       </c>
       <c r="L368" t="n">
         <v>49.21999999999987</v>
@@ -19047,7 +19069,7 @@
         <v>60.99999999999998</v>
       </c>
       <c r="K369" t="n">
-        <v>11.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L369" t="n">
         <v>49.22999999999988</v>
@@ -19098,7 +19120,7 @@
         <v>60.99999999999998</v>
       </c>
       <c r="K370" t="n">
-        <v>0</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L370" t="n">
         <v>49.22999999999988</v>
@@ -19149,7 +19171,7 @@
         <v>60.99999999999998</v>
       </c>
       <c r="K371" t="n">
-        <v>-10.00000000000014</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L371" t="n">
         <v>49.21999999999988</v>
@@ -19200,7 +19222,7 @@
         <v>60.99999999999998</v>
       </c>
       <c r="K372" t="n">
-        <v>-10.00000000000014</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L372" t="n">
         <v>49.17999999999988</v>
@@ -19251,7 +19273,7 @@
         <v>60.99999999999998</v>
       </c>
       <c r="K373" t="n">
-        <v>-10.00000000000014</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L373" t="n">
         <v>49.13999999999988</v>
@@ -19302,7 +19324,7 @@
         <v>60.99999999999998</v>
       </c>
       <c r="K374" t="n">
-        <v>-15.78947368421076</v>
+        <v>-100</v>
       </c>
       <c r="L374" t="n">
         <v>49.09999999999988</v>
@@ -19353,7 +19375,7 @@
         <v>60.99999999999998</v>
       </c>
       <c r="K375" t="n">
-        <v>-11.11111111111129</v>
+        <v>-100</v>
       </c>
       <c r="L375" t="n">
         <v>49.03999999999989</v>
@@ -19404,7 +19426,7 @@
         <v>60.99999999999998</v>
       </c>
       <c r="K376" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L376" t="n">
         <v>48.97999999999988</v>
@@ -19455,7 +19477,7 @@
         <v>60.99999999999998</v>
       </c>
       <c r="K377" t="n">
-        <v>6.666666666666793</v>
+        <v>-100</v>
       </c>
       <c r="L377" t="n">
         <v>48.91999999999988</v>
@@ -19506,7 +19528,7 @@
         <v>61.19999999999998</v>
       </c>
       <c r="K378" t="n">
-        <v>24.99999999999989</v>
+        <v>100</v>
       </c>
       <c r="L378" t="n">
         <v>48.91999999999988</v>
@@ -19557,7 +19579,7 @@
         <v>61.39999999999998</v>
       </c>
       <c r="K379" t="n">
-        <v>5.88235294117652</v>
+        <v>0</v>
       </c>
       <c r="L379" t="n">
         <v>48.91999999999988</v>
@@ -19608,7 +19630,7 @@
         <v>61.49999999999999</v>
       </c>
       <c r="K380" t="n">
-        <v>-5.88235294117652</v>
+        <v>-20</v>
       </c>
       <c r="L380" t="n">
         <v>48.90999999999988</v>
@@ -19659,7 +19681,7 @@
         <v>61.59999999999998</v>
       </c>
       <c r="K381" t="n">
-        <v>-17.64705882352921</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L381" t="n">
         <v>48.88999999999989</v>
@@ -19710,7 +19732,7 @@
         <v>61.69999999999997</v>
       </c>
       <c r="K382" t="n">
-        <v>-33.33333333333333</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L382" t="n">
         <v>48.87999999999988</v>
@@ -19761,7 +19783,7 @@
         <v>61.79999999999997</v>
       </c>
       <c r="K383" t="n">
-        <v>-37.49999999999978</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L383" t="n">
         <v>48.85999999999989</v>
@@ -19812,7 +19834,7 @@
         <v>61.79999999999997</v>
       </c>
       <c r="K384" t="n">
-        <v>-37.49999999999978</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L384" t="n">
         <v>48.8399999999999</v>
@@ -19863,7 +19885,7 @@
         <v>61.89999999999996</v>
       </c>
       <c r="K385" t="n">
-        <v>-46.6666666666673</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L385" t="n">
         <v>48.82999999999989</v>
@@ -19914,7 +19936,7 @@
         <v>62.29999999999997</v>
       </c>
       <c r="K386" t="n">
-        <v>-15.78947368421045</v>
+        <v>23.07692307692358</v>
       </c>
       <c r="L386" t="n">
         <v>48.8599999999999</v>
@@ -19965,7 +19987,7 @@
         <v>62.29999999999997</v>
       </c>
       <c r="K387" t="n">
-        <v>-15.78947368421045</v>
+        <v>9.090909090909326</v>
       </c>
       <c r="L387" t="n">
         <v>48.88999999999991</v>
@@ -20016,7 +20038,7 @@
         <v>62.39999999999996</v>
       </c>
       <c r="K388" t="n">
-        <v>12.49999999999983</v>
+        <v>40.00000000000071</v>
       </c>
       <c r="L388" t="n">
         <v>48.9099999999999</v>
@@ -20067,7 +20089,7 @@
         <v>62.39999999999996</v>
       </c>
       <c r="K389" t="n">
-        <v>28.57142857142879</v>
+        <v>55.55555555555696</v>
       </c>
       <c r="L389" t="n">
         <v>48.9499999999999</v>
@@ -20118,7 +20140,7 @@
         <v>62.39999999999996</v>
       </c>
       <c r="K390" t="n">
-        <v>28.57142857142879</v>
+        <v>75.00000000000088</v>
       </c>
       <c r="L390" t="n">
         <v>48.99999999999989</v>
@@ -20169,7 +20191,7 @@
         <v>62.39999999999996</v>
       </c>
       <c r="K391" t="n">
-        <v>28.57142857142879</v>
+        <v>71.42857142857258</v>
       </c>
       <c r="L391" t="n">
         <v>49.0599999999999</v>
@@ -20220,7 +20242,7 @@
         <v>62.39999999999996</v>
       </c>
       <c r="K392" t="n">
-        <v>28.57142857142879</v>
+        <v>100</v>
       </c>
       <c r="L392" t="n">
         <v>49.10999999999989</v>
@@ -20271,7 +20293,7 @@
         <v>62.79999999999996</v>
       </c>
       <c r="K393" t="n">
-        <v>0</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L393" t="n">
         <v>49.1299999999999</v>
@@ -20322,7 +20344,7 @@
         <v>62.99999999999996</v>
       </c>
       <c r="K394" t="n">
-        <v>-9.999999999999893</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L394" t="n">
         <v>49.1299999999999</v>
@@ -20373,7 +20395,7 @@
         <v>63.69999999999996</v>
       </c>
       <c r="K395" t="n">
-        <v>-33.33333333333351</v>
+        <v>-85.71428571428645</v>
       </c>
       <c r="L395" t="n">
         <v>49.0499999999999</v>
@@ -20424,7 +20446,7 @@
         <v>63.89999999999996</v>
       </c>
       <c r="K396" t="n">
-        <v>-24.13793103448274</v>
+        <v>-62.50000000000022</v>
       </c>
       <c r="L396" t="n">
         <v>48.9499999999999</v>
@@ -20475,7 +20497,7 @@
         <v>63.89999999999996</v>
       </c>
       <c r="K397" t="n">
-        <v>-24.13793103448274</v>
+        <v>-73.33333333333294</v>
       </c>
       <c r="L397" t="n">
         <v>48.8499999999999</v>
@@ -20526,7 +20548,7 @@
         <v>63.99999999999996</v>
       </c>
       <c r="K398" t="n">
-        <v>-28.57142857142897</v>
+        <v>-62.50000000000022</v>
       </c>
       <c r="L398" t="n">
         <v>48.7499999999999</v>
@@ -20577,7 +20599,7 @@
         <v>64.19999999999996</v>
       </c>
       <c r="K399" t="n">
-        <v>-14.28571428571436</v>
+        <v>-44.44444444444436</v>
       </c>
       <c r="L399" t="n">
         <v>48.66999999999991</v>
@@ -20628,7 +20650,7 @@
         <v>64.29999999999995</v>
       </c>
       <c r="K400" t="n">
-        <v>-7.14285714285707</v>
+        <v>-36.84210526315784</v>
       </c>
       <c r="L400" t="n">
         <v>48.5999999999999</v>
@@ -20679,7 +20701,7 @@
         <v>64.49999999999996</v>
       </c>
       <c r="K401" t="n">
-        <v>-10.34482758620712</v>
+        <v>-42.8571428571429</v>
       </c>
       <c r="L401" t="n">
         <v>48.50999999999991</v>
@@ -20730,7 +20752,7 @@
         <v>64.49999999999996</v>
       </c>
       <c r="K402" t="n">
-        <v>-14.28571428571432</v>
+        <v>-29.41176470588243</v>
       </c>
       <c r="L402" t="n">
         <v>48.41999999999991</v>
@@ -20832,7 +20854,7 @@
         <v>65.09999999999997</v>
       </c>
       <c r="K404" t="n">
-        <v>-9.090909090909228</v>
+        <v>28.57142857142835</v>
       </c>
       <c r="L404" t="n">
         <v>48.36999999999991</v>
@@ -20883,7 +20905,7 @@
         <v>65.59999999999997</v>
       </c>
       <c r="K405" t="n">
-        <v>-24.32432432432427</v>
+        <v>-17.64705882352963</v>
       </c>
       <c r="L405" t="n">
         <v>48.35999999999991</v>
@@ -20934,7 +20956,7 @@
         <v>65.69999999999996</v>
       </c>
       <c r="K406" t="n">
-        <v>-35.294117647059</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L406" t="n">
         <v>48.33999999999991</v>
@@ -20985,7 +21007,7 @@
         <v>65.69999999999996</v>
       </c>
       <c r="K407" t="n">
-        <v>-35.294117647059</v>
+        <v>-17.64705882352921</v>
       </c>
       <c r="L407" t="n">
         <v>48.31999999999992</v>
@@ -21036,7 +21058,7 @@
         <v>65.79999999999995</v>
       </c>
       <c r="K408" t="n">
-        <v>-35.29411764705878</v>
+        <v>-25</v>
       </c>
       <c r="L408" t="n">
         <v>48.29999999999991</v>
@@ -21087,7 +21109,7 @@
         <v>65.89999999999995</v>
       </c>
       <c r="K409" t="n">
-        <v>-37.14285714285721</v>
+        <v>-37.50000000000022</v>
       </c>
       <c r="L409" t="n">
         <v>48.24999999999991</v>
@@ -21138,7 +21160,7 @@
         <v>66.09999999999995</v>
       </c>
       <c r="K410" t="n">
-        <v>-29.72972972972967</v>
+        <v>-12.49999999999978</v>
       </c>
       <c r="L410" t="n">
         <v>48.20999999999991</v>
@@ -21189,7 +21211,7 @@
         <v>66.59999999999995</v>
       </c>
       <c r="K411" t="n">
-        <v>-38.09523809523807</v>
+        <v>-33.33333333333322</v>
       </c>
       <c r="L411" t="n">
         <v>48.13999999999992</v>
@@ -21240,7 +21262,7 @@
         <v>66.79999999999995</v>
       </c>
       <c r="K412" t="n">
-        <v>-31.81818181818184</v>
+        <v>-40.00000000000021</v>
       </c>
       <c r="L412" t="n">
         <v>48.08999999999992</v>
@@ -21291,7 +21313,7 @@
         <v>66.79999999999995</v>
       </c>
       <c r="K413" t="n">
-        <v>-25.00000000000004</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L413" t="n">
         <v>48.00999999999992</v>
@@ -21342,7 +21364,7 @@
         <v>66.79999999999995</v>
       </c>
       <c r="K414" t="n">
-        <v>-21.0526315789475</v>
+        <v>0</v>
       </c>
       <c r="L414" t="n">
         <v>47.95999999999992</v>
@@ -21393,7 +21415,7 @@
         <v>66.99999999999996</v>
       </c>
       <c r="K415" t="n">
-        <v>3.030303030303076</v>
+        <v>7.692307692307819</v>
       </c>
       <c r="L415" t="n">
         <v>47.97999999999993</v>
@@ -21444,7 +21466,7 @@
         <v>66.99999999999996</v>
       </c>
       <c r="K416" t="n">
-        <v>-3.225806451612955</v>
+        <v>7.692307692307819</v>
       </c>
       <c r="L416" t="n">
         <v>47.98999999999993</v>
@@ -21495,7 +21517,7 @@
         <v>67.29999999999995</v>
       </c>
       <c r="K417" t="n">
-        <v>-11.76470588235314</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L417" t="n">
         <v>47.96999999999993</v>
@@ -21546,7 +21568,7 @@
         <v>67.49999999999996</v>
       </c>
       <c r="K418" t="n">
-        <v>-8.571428571428489</v>
+        <v>0</v>
       </c>
       <c r="L418" t="n">
         <v>47.95999999999992</v>
@@ -21597,7 +21619,7 @@
         <v>67.59999999999997</v>
       </c>
       <c r="K419" t="n">
-        <v>-11.76470588235288</v>
+        <v>-6.666666666666698</v>
       </c>
       <c r="L419" t="n">
         <v>47.96999999999993</v>
@@ -21648,7 +21670,7 @@
         <v>67.59999999999997</v>
       </c>
       <c r="K420" t="n">
-        <v>-15.1515151515151</v>
+        <v>39.99999999999929</v>
       </c>
       <c r="L420" t="n">
         <v>47.95999999999993</v>
@@ -21699,7 +21721,7 @@
         <v>67.59999999999997</v>
       </c>
       <c r="K421" t="n">
-        <v>-9.677419354838591</v>
+        <v>25</v>
       </c>
       <c r="L421" t="n">
         <v>47.99999999999993</v>
@@ -21750,7 +21772,7 @@
         <v>67.59999999999997</v>
       </c>
       <c r="K422" t="n">
-        <v>-9.677419354838591</v>
+        <v>25</v>
       </c>
       <c r="L422" t="n">
         <v>48.01999999999992</v>
@@ -21801,7 +21823,7 @@
         <v>67.69999999999996</v>
       </c>
       <c r="K423" t="n">
-        <v>-17.24137931034479</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L423" t="n">
         <v>48.04999999999993</v>
@@ -21852,7 +21874,7 @@
         <v>67.79999999999995</v>
       </c>
       <c r="K424" t="n">
-        <v>-11.11111111111105</v>
+        <v>0</v>
       </c>
       <c r="L424" t="n">
         <v>48.06999999999994</v>
@@ -21903,7 +21925,7 @@
         <v>67.89999999999995</v>
       </c>
       <c r="K425" t="n">
-        <v>4.347826086956616</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L425" t="n">
         <v>48.05999999999993</v>
@@ -21954,7 +21976,7 @@
         <v>68.09999999999995</v>
       </c>
       <c r="K426" t="n">
-        <v>8.333333333333481</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L426" t="n">
         <v>48.06999999999994</v>
@@ -22005,7 +22027,7 @@
         <v>68.19999999999996</v>
       </c>
       <c r="K427" t="n">
-        <v>4.000000000000057</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L427" t="n">
         <v>48.09999999999994</v>
@@ -22056,7 +22078,7 @@
         <v>68.49999999999997</v>
       </c>
       <c r="K428" t="n">
-        <v>-11.1111111111112</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L428" t="n">
         <v>48.07999999999994</v>
@@ -22107,7 +22129,7 @@
         <v>68.79999999999997</v>
       </c>
       <c r="K429" t="n">
-        <v>-17.24137931034471</v>
+        <v>-50</v>
       </c>
       <c r="L429" t="n">
         <v>48.01999999999994</v>
@@ -22158,7 +22180,7 @@
         <v>68.89999999999998</v>
       </c>
       <c r="K430" t="n">
-        <v>-21.42857142857128</v>
+        <v>-38.46153846153813</v>
       </c>
       <c r="L430" t="n">
         <v>47.96999999999993</v>
@@ -22209,7 +22231,7 @@
         <v>68.99999999999997</v>
       </c>
       <c r="K431" t="n">
-        <v>-8.333333333333384</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L431" t="n">
         <v>47.90999999999993</v>
@@ -22260,7 +22282,7 @@
         <v>68.99999999999997</v>
       </c>
       <c r="K432" t="n">
-        <v>-18.18181818181798</v>
+        <v>-53.8461538461536</v>
       </c>
       <c r="L432" t="n">
         <v>47.84999999999993</v>
@@ -22311,7 +22333,7 @@
         <v>68.99999999999997</v>
       </c>
       <c r="K433" t="n">
-        <v>-18.18181818181798</v>
+        <v>-49.9999999999994</v>
       </c>
       <c r="L433" t="n">
         <v>47.77999999999993</v>
@@ -22362,7 +22384,7 @@
         <v>68.99999999999997</v>
       </c>
       <c r="K434" t="n">
-        <v>-18.18181818181798</v>
+        <v>-45.45454545454452</v>
       </c>
       <c r="L434" t="n">
         <v>47.71999999999993</v>
@@ -22413,7 +22435,7 @@
         <v>69.09999999999997</v>
       </c>
       <c r="K435" t="n">
-        <v>-33.33333333333333</v>
+        <v>-79.99999999999929</v>
       </c>
       <c r="L435" t="n">
         <v>47.65999999999993</v>
@@ -22464,7 +22486,7 @@
         <v>69.19999999999996</v>
       </c>
       <c r="K436" t="n">
-        <v>-27.27272727272731</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L436" t="n">
         <v>47.58999999999993</v>
@@ -22515,7 +22537,7 @@
         <v>69.79999999999995</v>
       </c>
       <c r="K437" t="n">
-        <v>12.00000000000017</v>
+        <v>23.07692307692371</v>
       </c>
       <c r="L437" t="n">
         <v>47.58999999999992</v>
@@ -22566,7 +22588,7 @@
         <v>69.89999999999995</v>
       </c>
       <c r="K438" t="n">
-        <v>8.333333333333481</v>
+        <v>63.63636363636505</v>
       </c>
       <c r="L438" t="n">
         <v>47.62999999999992</v>
@@ -22617,7 +22639,7 @@
         <v>69.89999999999995</v>
       </c>
       <c r="K439" t="n">
-        <v>4.347826086956616</v>
+        <v>60.00000000000185</v>
       </c>
       <c r="L439" t="n">
         <v>47.69999999999992</v>
@@ -22668,7 +22690,7 @@
         <v>69.89999999999995</v>
       </c>
       <c r="K440" t="n">
-        <v>4.347826086956616</v>
+        <v>77.77777777778006</v>
       </c>
       <c r="L440" t="n">
         <v>47.75999999999992</v>
@@ -22719,7 +22741,7 @@
         <v>69.89999999999995</v>
       </c>
       <c r="K441" t="n">
-        <v>4.347826086956616</v>
+        <v>77.77777777778006</v>
       </c>
       <c r="L441" t="n">
         <v>47.82999999999993</v>
@@ -22770,7 +22792,7 @@
         <v>69.89999999999995</v>
       </c>
       <c r="K442" t="n">
-        <v>4.347826086956616</v>
+        <v>77.77777777778006</v>
       </c>
       <c r="L442" t="n">
         <v>47.89999999999993</v>
@@ -22821,7 +22843,7 @@
         <v>69.89999999999995</v>
       </c>
       <c r="K443" t="n">
-        <v>0</v>
+        <v>77.77777777778006</v>
       </c>
       <c r="L443" t="n">
         <v>47.96999999999993</v>
@@ -22872,7 +22894,7 @@
         <v>69.89999999999995</v>
       </c>
       <c r="K444" t="n">
-        <v>4.761904761904842</v>
+        <v>100.0000000000027</v>
       </c>
       <c r="L444" t="n">
         <v>48.03999999999994</v>
@@ -22923,7 +22945,7 @@
         <v>69.89999999999995</v>
       </c>
       <c r="K445" t="n">
-        <v>10.00000000000014</v>
+        <v>100.000000000002</v>
       </c>
       <c r="L445" t="n">
         <v>48.11999999999995</v>
@@ -22974,7 +22996,7 @@
         <v>69.89999999999995</v>
       </c>
       <c r="K446" t="n">
-        <v>0</v>
+        <v>100.0000000000071</v>
       </c>
       <c r="L446" t="n">
         <v>48.18999999999996</v>
@@ -23025,7 +23047,7 @@
         <v>70.29999999999995</v>
       </c>
       <c r="K447" t="n">
-        <v>23.80952380952387</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L447" t="n">
         <v>48.23999999999995</v>
@@ -23076,7 +23098,7 @@
         <v>70.29999999999995</v>
       </c>
       <c r="K448" t="n">
-        <v>44.4444444444451</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L448" t="n">
         <v>48.27999999999996</v>
@@ -23127,7 +23149,7 @@
         <v>71.19999999999996</v>
       </c>
       <c r="K449" t="n">
-        <v>83.33333333333363</v>
+        <v>99.99999999999891</v>
       </c>
       <c r="L449" t="n">
         <v>48.40999999999995</v>
@@ -23178,7 +23200,7 @@
         <v>71.49999999999996</v>
       </c>
       <c r="K450" t="n">
-        <v>84.6153846153851</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L450" t="n">
         <v>48.56999999999995</v>
@@ -23229,7 +23251,7 @@
         <v>71.59999999999997</v>
       </c>
       <c r="K451" t="n">
-        <v>92.30769230769246</v>
+        <v>99.99999999999875</v>
       </c>
       <c r="L451" t="n">
         <v>48.73999999999996</v>
@@ -23280,7 +23302,7 @@
         <v>71.79999999999995</v>
       </c>
       <c r="K452" t="n">
-        <v>78.57142857142915</v>
+        <v>78.9473684210524</v>
       </c>
       <c r="L452" t="n">
         <v>48.88999999999996</v>
@@ -23331,7 +23353,7 @@
         <v>72.09999999999997</v>
       </c>
       <c r="K453" t="n">
-        <v>61.29032258064523</v>
+        <v>54.54545454545393</v>
       </c>
       <c r="L453" t="n">
         <v>49.00999999999996</v>
@@ -23382,7 +23404,7 @@
         <v>72.19999999999996</v>
       </c>
       <c r="K454" t="n">
-        <v>62.50000000000022</v>
+        <v>56.52173913043438</v>
       </c>
       <c r="L454" t="n">
         <v>49.13999999999997</v>
@@ -23433,7 +23455,7 @@
         <v>72.29999999999995</v>
       </c>
       <c r="K455" t="n">
-        <v>62.50000000000022</v>
+        <v>49.99999999999971</v>
       </c>
       <c r="L455" t="n">
         <v>49.25999999999998</v>
@@ -23484,7 +23506,7 @@
         <v>72.39999999999995</v>
       </c>
       <c r="K456" t="n">
-        <v>56.25000000000011</v>
+        <v>33.33333333333322</v>
       </c>
       <c r="L456" t="n">
         <v>49.36999999999998</v>
@@ -23535,7 +23557,7 @@
         <v>72.69999999999995</v>
       </c>
       <c r="K457" t="n">
-        <v>31.03448275862073</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L457" t="n">
         <v>49.40999999999998</v>
@@ -23586,7 +23608,7 @@
         <v>72.79999999999995</v>
       </c>
       <c r="K458" t="n">
-        <v>24.13793103448257</v>
+        <v>-37.50000000000022</v>
       </c>
       <c r="L458" t="n">
         <v>49.43999999999998</v>
@@ -23637,7 +23659,7 @@
         <v>72.79999999999995</v>
       </c>
       <c r="K459" t="n">
-        <v>24.13793103448257</v>
+        <v>-69.23076923076927</v>
       </c>
       <c r="L459" t="n">
         <v>49.37999999999997</v>
@@ -23688,7 +23710,7 @@
         <v>72.89999999999995</v>
       </c>
       <c r="K460" t="n">
-        <v>19.99999999999981</v>
+        <v>-84.61538461538584</v>
       </c>
       <c r="L460" t="n">
         <v>49.27999999999997</v>
@@ -23739,7 +23761,7 @@
         <v>72.99999999999994</v>
       </c>
       <c r="K461" t="n">
-        <v>16.12903225806455</v>
+        <v>-83.33333333333412</v>
       </c>
       <c r="L461" t="n">
         <v>49.15999999999997</v>
@@ -23790,7 +23812,7 @@
         <v>73.49999999999994</v>
       </c>
       <c r="K462" t="n">
-        <v>0</v>
+        <v>-85.7142857142868</v>
       </c>
       <c r="L462" t="n">
         <v>49.00999999999998</v>
@@ -23841,7 +23863,7 @@
         <v>73.69999999999993</v>
       </c>
       <c r="K463" t="n">
-        <v>5.263157894736754</v>
+        <v>-73.33333333333482</v>
       </c>
       <c r="L463" t="n">
         <v>48.90999999999998</v>
@@ -23892,7 +23914,7 @@
         <v>73.79999999999993</v>
       </c>
       <c r="K464" t="n">
-        <v>2.564102564102433</v>
+        <v>-73.33333333333482</v>
       </c>
       <c r="L464" t="n">
         <v>48.78999999999998</v>
@@ -23943,7 +23965,7 @@
         <v>73.79999999999993</v>
       </c>
       <c r="K465" t="n">
-        <v>2.564102564102433</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L465" t="n">
         <v>48.67999999999997</v>
@@ -23994,7 +24016,7 @@
         <v>73.89999999999992</v>
       </c>
       <c r="K466" t="n">
-        <v>4.999999999999929</v>
+        <v>-50.00000000000119</v>
       </c>
       <c r="L466" t="n">
         <v>48.58999999999997</v>
@@ -24045,7 +24067,7 @@
         <v>73.89999999999992</v>
       </c>
       <c r="K467" t="n">
-        <v>-5.555555555555687</v>
+        <v>-45.45454545454686</v>
       </c>
       <c r="L467" t="n">
         <v>48.52999999999997</v>
@@ -24096,7 +24118,7 @@
         <v>73.89999999999992</v>
       </c>
       <c r="K468" t="n">
-        <v>-5.555555555555687</v>
+        <v>-45.45454545454686</v>
       </c>
       <c r="L468" t="n">
         <v>48.47999999999998</v>
@@ -24147,7 +24169,7 @@
         <v>74.09999999999992</v>
       </c>
       <c r="K469" t="n">
-        <v>-31.03448275862104</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L469" t="n">
         <v>48.44999999999997</v>
@@ -24198,7 +24220,7 @@
         <v>74.29999999999993</v>
       </c>
       <c r="K470" t="n">
-        <v>-35.71428571428611</v>
+        <v>7.692307692307356</v>
       </c>
       <c r="L470" t="n">
         <v>48.44999999999997</v>
@@ -24249,7 +24271,7 @@
         <v>74.29999999999993</v>
       </c>
       <c r="K471" t="n">
-        <v>-40.74074074074139</v>
+        <v>75.00000000000088</v>
       </c>
       <c r="L471" t="n">
         <v>48.45999999999997</v>
@@ -24300,7 +24322,7 @@
         <v>74.79999999999993</v>
       </c>
       <c r="K472" t="n">
-        <v>-13.33333333333365</v>
+        <v>81.81818181818211</v>
       </c>
       <c r="L472" t="n">
         <v>48.56999999999998</v>
@@ -24351,7 +24373,7 @@
         <v>74.79999999999993</v>
       </c>
       <c r="K473" t="n">
-        <v>-3.703703703703811</v>
+        <v>100</v>
       </c>
       <c r="L473" t="n">
         <v>48.65999999999998</v>
@@ -24402,7 +24424,7 @@
         <v>74.79999999999993</v>
       </c>
       <c r="K474" t="n">
-        <v>-7.692307692307902</v>
+        <v>100</v>
       </c>
       <c r="L474" t="n">
         <v>48.75999999999998</v>
@@ -24453,7 +24475,7 @@
         <v>74.89999999999992</v>
       </c>
       <c r="K475" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L475" t="n">
         <v>48.86999999999998</v>
@@ -24504,7 +24526,7 @@
         <v>75.19999999999992</v>
       </c>
       <c r="K476" t="n">
-        <v>-7.14285714285707</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L476" t="n">
         <v>48.93999999999998</v>
@@ -24555,7 +24577,7 @@
         <v>75.69999999999992</v>
       </c>
       <c r="K477" t="n">
-        <v>20.00000000000024</v>
+        <v>66.66666666666693</v>
       </c>
       <c r="L477" t="n">
         <v>49.05999999999998</v>
@@ -24606,7 +24628,7 @@
         <v>75.69999999999992</v>
       </c>
       <c r="K478" t="n">
-        <v>24.13793103448317</v>
+        <v>62.50000000000022</v>
       </c>
       <c r="L478" t="n">
         <v>49.17999999999999</v>

--- a/BackTest/2019-11-15 BackTest LAMB.xlsx
+++ b/BackTest/2019-11-15 BackTest LAMB.xlsx
@@ -451,17 +451,13 @@
         <v>44.49333333333337</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>44.5</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>44.4966666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>44.4966666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>44.49833333333336</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>44.50000000000003</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>44.51166666666669</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -711,14 +667,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -752,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -793,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -875,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -910,22 +836,14 @@
         <v>44.53500000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -953,22 +871,14 @@
         <v>44.53500000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -996,22 +906,14 @@
         <v>44.53666666666668</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1039,22 +941,14 @@
         <v>44.54333333333334</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1082,22 +976,14 @@
         <v>44.55166666666667</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1125,22 +1011,14 @@
         <v>44.56166666666668</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1046,14 @@
         <v>44.57666666666668</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1211,22 +1081,14 @@
         <v>44.59500000000002</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1260,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1301,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1342,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1383,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1424,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1465,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1506,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1547,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1588,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1629,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1670,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1711,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1752,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1793,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1834,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1875,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1916,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1957,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1998,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2039,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2080,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2121,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2162,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2203,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2244,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2285,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2326,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2367,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2408,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2449,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2490,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2531,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2572,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2613,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2654,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2695,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2736,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2777,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2818,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2859,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2900,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2941,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2982,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3023,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3064,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3105,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3146,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3187,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3228,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3269,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3310,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3351,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3392,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3433,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3474,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3515,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3556,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3597,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3638,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3679,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3720,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3761,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3802,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3843,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3884,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3925,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3966,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4007,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4048,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4089,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4130,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4171,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4212,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4253,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4294,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4335,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4376,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4417,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4458,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4496,17 +3884,11 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4540,16 +3922,10 @@
         <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>1.096123595505618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -4578,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -6850,14 +6226,20 @@
         <v>48.52666666666671</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>47.9</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6885,14 +6267,20 @@
         <v>48.50833333333337</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>47.5</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6920,14 +6308,20 @@
         <v>48.4916666666667</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>47.5</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6955,14 +6349,20 @@
         <v>48.48000000000004</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6990,14 +6390,20 @@
         <v>48.47833333333337</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7025,14 +6431,20 @@
         <v>48.47333333333336</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>47.7</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7060,14 +6472,20 @@
         <v>48.47000000000003</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>47.5</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7095,14 +6513,20 @@
         <v>48.46500000000003</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>47.8</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7130,14 +6554,20 @@
         <v>48.46500000000003</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>47.7</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7165,14 +6595,20 @@
         <v>48.45500000000003</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>47.7</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7200,14 +6636,20 @@
         <v>48.44500000000002</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>47.7</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7242,7 +6684,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7277,7 +6723,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7312,7 +6762,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7347,7 +6801,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7375,14 +6833,20 @@
         <v>48.34833333333336</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>47.4</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7410,14 +6874,20 @@
         <v>48.31833333333336</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>47.5</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7445,14 +6915,20 @@
         <v>48.29166666666668</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>47.2</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7480,14 +6956,20 @@
         <v>48.26500000000001</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>47.2</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7515,14 +6997,20 @@
         <v>48.23166666666668</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>47.1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7557,7 +7045,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7592,7 +7084,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7627,7 +7123,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7662,7 +7162,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7697,7 +7201,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7732,7 +7240,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7767,7 +7279,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7802,7 +7318,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7837,7 +7357,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7872,7 +7396,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7907,7 +7435,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7942,7 +7474,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7977,7 +7513,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +7552,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8047,7 +7591,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8082,7 +7630,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8117,7 +7669,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8152,7 +7708,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8187,7 +7747,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8222,7 +7786,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8257,7 +7825,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8292,7 +7864,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8327,7 +7903,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8362,7 +7942,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8397,7 +7981,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8432,7 +8020,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8467,7 +8059,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8502,7 +8098,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8537,7 +8137,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8572,7 +8176,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8607,7 +8215,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8642,7 +8254,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8677,7 +8293,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8712,7 +8332,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8747,7 +8371,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8782,7 +8410,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8817,7 +8449,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8852,7 +8488,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8887,7 +8527,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8922,7 +8566,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8957,7 +8605,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8992,7 +8644,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9027,7 +8683,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9062,7 +8722,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9097,7 +8761,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9132,7 +8800,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +8839,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9202,7 +8878,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9237,7 +8917,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9272,7 +8956,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9307,7 +8995,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9342,7 +9034,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9377,7 +9073,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9412,7 +9112,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9447,7 +9151,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9482,7 +9190,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9517,7 +9229,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9552,7 +9268,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9587,7 +9307,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9622,7 +9346,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9657,7 +9385,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9692,7 +9424,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9727,7 +9463,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9762,7 +9502,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9797,7 +9541,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9832,7 +9580,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9867,7 +9619,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9902,7 +9658,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9937,7 +9697,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9972,7 +9736,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10007,7 +9775,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10042,7 +9814,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10077,7 +9853,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10112,7 +9892,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10147,7 +9931,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10182,7 +9970,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10217,7 +10009,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10252,7 +10048,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10287,7 +10087,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10322,7 +10126,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10357,7 +10165,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10392,7 +10204,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10427,7 +10243,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10462,7 +10282,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10497,7 +10321,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10532,7 +10360,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10567,7 +10399,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10602,7 +10438,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10637,7 +10477,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10672,7 +10516,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10707,7 +10555,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10742,7 +10594,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10777,7 +10633,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10812,7 +10672,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10847,7 +10711,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10882,7 +10750,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10917,7 +10789,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10952,7 +10828,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10987,7 +10867,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11018,14 +10902,16 @@
         <v>0</v>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11088,7 +10974,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
@@ -11123,7 +11009,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
@@ -11683,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>

--- a/BackTest/2019-11-15 BackTest LAMB.xlsx
+++ b/BackTest/2019-11-15 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-699844.3258999997</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -748,14 +748,10 @@
         <v>-727393.8925999998</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>45</v>
-      </c>
-      <c r="J11" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -788,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>45</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -827,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>45</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -1325,10 +1309,14 @@
         <v>-702486.1938999998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>44.1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
@@ -1358,11 +1346,19 @@
         <v>-702486.1938999998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1391,11 +1387,19 @@
         <v>-702486.1938999998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1424,11 +1428,19 @@
         <v>-741783.4325999998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1457,11 +1469,19 @@
         <v>-740502.4325999998</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1490,11 +1510,19 @@
         <v>-741301.1978999998</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1523,15 +1551,19 @@
         <v>-734055.7627999998</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>44.2</v>
       </c>
       <c r="J34" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+        <v>44.1</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1560,15 +1592,17 @@
         <v>-734055.7627999998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>44.4</v>
+      </c>
       <c r="J35" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1599,17 +1633,17 @@
         <v>-734055.7627999998</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>44.4</v>
       </c>
       <c r="J36" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1640,15 +1674,19 @@
         <v>-731312.2063999998</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>44.4</v>
       </c>
       <c r="J37" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>44.1</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1677,17 +1715,17 @@
         <v>-736257.2290999998</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>44.8</v>
       </c>
       <c r="J38" t="n">
-        <v>44.4</v>
+        <v>44.1</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1718,17 +1756,17 @@
         <v>-735141.4503999997</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>44.5</v>
       </c>
       <c r="J39" t="n">
-        <v>44.4</v>
+        <v>44.1</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1759,15 +1797,19 @@
         <v>-774731.0736999997</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>44.7</v>
       </c>
       <c r="J40" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+        <v>44.1</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1796,17 +1838,17 @@
         <v>-774731.0736999997</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>44.6</v>
       </c>
       <c r="J41" t="n">
-        <v>44.7</v>
+        <v>44.1</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1837,17 +1879,17 @@
         <v>-775018.6818999997</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>44.6</v>
       </c>
       <c r="J42" t="n">
-        <v>44.7</v>
+        <v>44.1</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1878,15 +1920,19 @@
         <v>-842943.6318999997</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>44.5</v>
       </c>
       <c r="J43" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+        <v>44.1</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1915,17 +1961,17 @@
         <v>-847601.9192999997</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>44.4</v>
       </c>
       <c r="J44" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -1956,13 +2002,13 @@
         <v>-902362.9133999997</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>44.3</v>
       </c>
       <c r="J45" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -1997,13 +2043,13 @@
         <v>-902362.9133999997</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>44.2</v>
       </c>
       <c r="J46" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2038,13 +2084,13 @@
         <v>-902362.9133999997</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>44.2</v>
       </c>
       <c r="J47" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2079,13 +2125,13 @@
         <v>-882362.9133999997</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>44.2</v>
       </c>
       <c r="J48" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2120,13 +2166,13 @@
         <v>-884211.1432999998</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>44.4</v>
       </c>
       <c r="J49" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2161,13 +2207,13 @@
         <v>-882758.4342999997</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>44.3</v>
       </c>
       <c r="J50" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2202,13 +2248,13 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>44.5</v>
       </c>
       <c r="J51" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2243,13 +2289,13 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>44.4</v>
       </c>
       <c r="J52" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2284,13 +2330,13 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>44.4</v>
       </c>
       <c r="J53" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2325,13 +2371,13 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>44.4</v>
       </c>
       <c r="J54" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2366,13 +2412,13 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>44.4</v>
       </c>
       <c r="J55" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2407,13 +2453,13 @@
         <v>-938024.0166999997</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>44.4</v>
       </c>
       <c r="J56" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2448,13 +2494,13 @@
         <v>-1006592.7268</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>44.5</v>
       </c>
       <c r="J57" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2489,11 +2535,13 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>44.3</v>
+      </c>
       <c r="J58" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2528,13 +2576,13 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>44.5</v>
       </c>
       <c r="J59" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2569,13 +2617,13 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>44.5</v>
       </c>
       <c r="J60" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2610,11 +2658,13 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>44.5</v>
+      </c>
       <c r="J61" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2649,11 +2699,13 @@
         <v>-947777.4159999997</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>44.5</v>
+      </c>
       <c r="J62" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2688,11 +2740,13 @@
         <v>-947777.4159999997</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>44.6</v>
+      </c>
       <c r="J63" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2727,11 +2781,13 @@
         <v>-947777.4159999997</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>44.6</v>
+      </c>
       <c r="J64" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2766,13 +2822,13 @@
         <v>-947777.4159999997</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>44.6</v>
       </c>
       <c r="J65" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2811,7 +2867,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2850,7 +2906,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2889,7 +2945,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2928,7 +2984,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2967,7 +3023,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3006,7 +3062,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3045,7 +3101,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3084,7 +3140,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3123,7 +3179,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3162,7 +3218,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3201,7 +3257,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3240,7 +3296,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3279,7 +3335,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3318,7 +3374,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3357,7 +3413,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3396,7 +3452,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3435,7 +3491,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3474,7 +3530,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3513,7 +3569,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3552,7 +3608,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3591,7 +3647,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3630,7 +3686,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3669,7 +3725,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3708,7 +3764,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3747,7 +3803,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3786,7 +3842,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3825,7 +3881,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3864,7 +3920,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3903,7 +3959,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3942,7 +3998,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3981,7 +4037,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4020,7 +4076,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4059,7 +4115,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4098,7 +4154,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4137,7 +4193,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4176,7 +4232,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4215,7 +4271,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4254,7 +4310,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4293,7 +4349,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4332,7 +4388,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4371,7 +4427,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4410,7 +4466,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4449,7 +4505,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4488,7 +4544,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4527,7 +4583,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4566,7 +4622,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4605,7 +4661,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4644,7 +4700,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4683,7 +4739,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4722,7 +4778,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4761,7 +4817,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4800,7 +4856,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4839,7 +4895,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4878,7 +4934,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4917,7 +4973,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4956,7 +5012,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4995,7 +5051,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5034,7 +5090,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5073,7 +5129,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5112,7 +5168,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5151,7 +5207,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5190,7 +5246,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5229,7 +5285,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5268,7 +5324,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5307,7 +5363,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5346,7 +5402,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5385,7 +5441,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5424,7 +5480,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5463,7 +5519,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5502,7 +5558,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5541,7 +5597,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5580,7 +5636,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5619,7 +5675,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5658,7 +5714,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5697,7 +5753,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5736,7 +5792,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5775,7 +5831,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5814,7 +5870,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5853,7 +5909,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5892,7 +5948,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5931,7 +5987,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5970,7 +6026,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6009,7 +6065,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6048,7 +6104,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6087,7 +6143,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6126,7 +6182,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6165,7 +6221,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6204,7 +6260,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6243,7 +6299,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6282,7 +6338,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6321,7 +6377,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6356,1310 +6412,1544 @@
         <v>-567655.3971224539</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C158" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D158" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E158" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4480.423387096775</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-567655.3971224539</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C159" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E159" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>37003.5689</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-604658.9660224539</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C160" t="n">
+        <v>49</v>
+      </c>
+      <c r="D160" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="E160" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="F160" t="n">
+        <v>110020.9993</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-714679.9653224539</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="D161" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="F161" t="n">
+        <v>191242.4086</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-905922.3739224538</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="C162" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="D162" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="E162" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="F162" t="n">
+        <v>61948.5986</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-967870.9725224539</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C163" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="D163" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E163" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="F163" t="n">
+        <v>6304.6543</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-967870.9725224539</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C164" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="D164" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E164" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4480.4234</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-967870.9725224539</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C165" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="D165" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E165" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F165" t="n">
+        <v>280.0277</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-967590.9448224539</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C166" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>5696.169</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-961894.7758224539</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C167" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="D167" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E167" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1757.085</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-963651.8608224539</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C168" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="D168" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E168" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="F168" t="n">
+        <v>12200</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-975851.8608224539</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="C169" t="n">
+        <v>48</v>
+      </c>
+      <c r="D169" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="E169" t="n">
+        <v>48</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2609.5734</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-978461.4342224539</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>48</v>
+      </c>
+      <c r="C170" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="D170" t="n">
+        <v>48</v>
+      </c>
+      <c r="E170" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="F170" t="n">
+        <v>174493.4324</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-1152954.866622454</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="C171" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="D171" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2828.4027</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-1152954.866622454</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>48</v>
+      </c>
+      <c r="C172" t="n">
+        <v>48</v>
+      </c>
+      <c r="D172" t="n">
+        <v>48</v>
+      </c>
+      <c r="E172" t="n">
+        <v>48</v>
+      </c>
+      <c r="F172" t="n">
+        <v>28624.1721</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-1124330.694522454</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>48</v>
+      </c>
+      <c r="C173" t="n">
+        <v>48</v>
+      </c>
+      <c r="D173" t="n">
+        <v>48</v>
+      </c>
+      <c r="E173" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="F173" t="n">
+        <v>4723.8546</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-1124330.694522454</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>48</v>
+      </c>
+      <c r="C174" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="D174" t="n">
+        <v>48</v>
+      </c>
+      <c r="E174" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="F174" t="n">
+        <v>8239.5245</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-1132570.219022454</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C175" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="D175" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="E175" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="F175" t="n">
+        <v>259</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-1132311.219022454</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="D176" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="E176" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="F176" t="n">
+        <v>9236.2891</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-1132311.219022454</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="C177" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D177" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E177" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="F177" t="n">
+        <v>89278</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1043033.219022454</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C178" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D178" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E178" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F178" t="n">
+        <v>137045.1957</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1043033.219022454</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C179" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="D179" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E179" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F179" t="n">
+        <v>27910.8289</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-1015122.390122454</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C180" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="D180" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="F180" t="n">
+        <v>81956.9847</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-933165.4054224538</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="C181" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="D181" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="E181" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="F181" t="n">
+        <v>14389.4848</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-918775.9206224538</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C182" t="n">
+        <v>49</v>
+      </c>
+      <c r="D182" t="n">
+        <v>49</v>
+      </c>
+      <c r="E182" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="F182" t="n">
+        <v>16988.1759</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-901787.7447224538</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="C183" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="D183" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="E183" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="F183" t="n">
+        <v>9088.629800000001</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-910876.3745224538</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C184" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="D184" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="E184" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="F184" t="n">
+        <v>541.9537</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-911418.3282224537</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>49</v>
+      </c>
+      <c r="C185" t="n">
+        <v>49</v>
+      </c>
+      <c r="D185" t="n">
+        <v>49</v>
+      </c>
+      <c r="E185" t="n">
+        <v>49</v>
+      </c>
+      <c r="F185" t="n">
+        <v>17100</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-894318.3282224537</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>49</v>
+      </c>
+      <c r="C186" t="n">
+        <v>49</v>
+      </c>
+      <c r="D186" t="n">
+        <v>49</v>
+      </c>
+      <c r="E186" t="n">
+        <v>49</v>
+      </c>
+      <c r="F186" t="n">
+        <v>51974.8685</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-894318.3282224537</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C187" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="D187" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="E187" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="F187" t="n">
+        <v>61332.32</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-955650.6482224537</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C188" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="D188" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="E188" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="F188" t="n">
+        <v>52148.6026</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-955650.6482224537</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>49</v>
+      </c>
+      <c r="C189" t="n">
+        <v>49</v>
+      </c>
+      <c r="D189" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>49</v>
+      </c>
+      <c r="F189" t="n">
+        <v>30524.0224</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-925126.6258224536</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>49</v>
+      </c>
+      <c r="C190" t="n">
+        <v>49</v>
+      </c>
+      <c r="D190" t="n">
+        <v>49</v>
+      </c>
+      <c r="E190" t="n">
+        <v>49</v>
+      </c>
+      <c r="F190" t="n">
+        <v>3985.2658</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-925126.6258224536</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="C191" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D191" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="E191" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="F191" t="n">
+        <v>13128.5946</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-911998.0312224537</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C192" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D192" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E192" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F192" t="n">
+        <v>70000</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-841998.0312224537</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C193" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D193" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E193" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F193" t="n">
+        <v>60508.4847</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-781489.5465224537</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C194" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="E194" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F194" t="n">
+        <v>46318.5427</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-735171.0038224537</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C195" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D195" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="E195" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F195" t="n">
+        <v>41674.1428</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-776845.1466224537</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>50</v>
+      </c>
+      <c r="D196" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="E196" t="n">
+        <v>50</v>
+      </c>
+      <c r="F196" t="n">
+        <v>36824.9728</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-740020.1738224537</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1.109606741573034</v>
-      </c>
-      <c r="M157" t="n">
-        <v>1.027334851936219</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="C158" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="D158" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="E158" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="F158" t="n">
-        <v>4480.423387096775</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-567655.3971224539</v>
-      </c>
-      <c r="H158" t="n">
-        <v>3</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="C159" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="D159" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="E159" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="F159" t="n">
-        <v>37003.5689</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-604658.9660224539</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="C160" t="n">
-        <v>49</v>
-      </c>
-      <c r="D160" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="E160" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="F160" t="n">
-        <v>110020.9993</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-714679.9653224539</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="C161" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="D161" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="E161" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="F161" t="n">
-        <v>191242.4086</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-905922.3739224538</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="C162" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="D162" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="E162" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="F162" t="n">
-        <v>61948.5986</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-967870.9725224539</v>
-      </c>
-      <c r="H162" t="n">
-        <v>3</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="C163" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="D163" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="E163" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="F163" t="n">
-        <v>6304.6543</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-967870.9725224539</v>
-      </c>
-      <c r="H163" t="n">
-        <v>3</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="C164" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="D164" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="E164" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="F164" t="n">
-        <v>4480.4234</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-967870.9725224539</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="C165" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="D165" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="E165" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F165" t="n">
-        <v>280.0277</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-967590.9448224539</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="C166" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="D166" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="E166" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F166" t="n">
-        <v>5696.169</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-961894.7758224539</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="C167" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="D167" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="E167" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1757.085</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-963651.8608224539</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="C168" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="D168" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="E168" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="F168" t="n">
-        <v>12200</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-975851.8608224539</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="C169" t="n">
-        <v>48</v>
-      </c>
-      <c r="D169" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="E169" t="n">
-        <v>48</v>
-      </c>
-      <c r="F169" t="n">
-        <v>2609.5734</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-978461.4342224539</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>48</v>
-      </c>
-      <c r="C170" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="D170" t="n">
-        <v>48</v>
-      </c>
-      <c r="E170" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="F170" t="n">
-        <v>174493.4324</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-1152954.866622454</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="C171" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="D171" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="E171" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="F171" t="n">
-        <v>2828.4027</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-1152954.866622454</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>48</v>
-      </c>
-      <c r="C172" t="n">
-        <v>48</v>
-      </c>
-      <c r="D172" t="n">
-        <v>48</v>
-      </c>
-      <c r="E172" t="n">
-        <v>48</v>
-      </c>
-      <c r="F172" t="n">
-        <v>28624.1721</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-1124330.694522454</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>48</v>
-      </c>
-      <c r="C173" t="n">
-        <v>48</v>
-      </c>
-      <c r="D173" t="n">
-        <v>48</v>
-      </c>
-      <c r="E173" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="F173" t="n">
-        <v>4723.8546</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-1124330.694522454</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>48</v>
-      </c>
-      <c r="C174" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="D174" t="n">
-        <v>48</v>
-      </c>
-      <c r="E174" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="F174" t="n">
-        <v>8239.5245</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-1132570.219022454</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C175" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="D175" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="E175" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F175" t="n">
-        <v>259</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-1132311.219022454</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="C176" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="D176" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="E176" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="F176" t="n">
-        <v>9236.2891</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-1132311.219022454</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="C177" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="D177" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="E177" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="F177" t="n">
-        <v>89278</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-1043033.219022454</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="C178" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="D178" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="E178" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F178" t="n">
-        <v>137045.1957</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-1043033.219022454</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="C179" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="D179" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="E179" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F179" t="n">
-        <v>27910.8289</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-1015122.390122454</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="C180" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="D180" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="E180" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="F180" t="n">
-        <v>81956.9847</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-933165.4054224538</v>
-      </c>
-      <c r="H180" t="n">
-        <v>3</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="C181" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="D181" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="E181" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="F181" t="n">
-        <v>14389.4848</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-918775.9206224538</v>
-      </c>
-      <c r="H181" t="n">
-        <v>3</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="C182" t="n">
-        <v>49</v>
-      </c>
-      <c r="D182" t="n">
-        <v>49</v>
-      </c>
-      <c r="E182" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="F182" t="n">
-        <v>16988.1759</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-901787.7447224538</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="C183" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="D183" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="E183" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="F183" t="n">
-        <v>9088.629800000001</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-910876.3745224538</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="C184" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="D184" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="E184" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="F184" t="n">
-        <v>541.9537</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-911418.3282224537</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>49</v>
-      </c>
-      <c r="C185" t="n">
-        <v>49</v>
-      </c>
-      <c r="D185" t="n">
-        <v>49</v>
-      </c>
-      <c r="E185" t="n">
-        <v>49</v>
-      </c>
-      <c r="F185" t="n">
-        <v>17100</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-894318.3282224537</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>49</v>
-      </c>
-      <c r="C186" t="n">
-        <v>49</v>
-      </c>
-      <c r="D186" t="n">
-        <v>49</v>
-      </c>
-      <c r="E186" t="n">
-        <v>49</v>
-      </c>
-      <c r="F186" t="n">
-        <v>51974.8685</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-894318.3282224537</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="C187" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="D187" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="E187" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="F187" t="n">
-        <v>61332.32</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-955650.6482224537</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="C188" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="D188" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="E188" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="F188" t="n">
-        <v>52148.6026</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-955650.6482224537</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>49</v>
-      </c>
-      <c r="C189" t="n">
-        <v>49</v>
-      </c>
-      <c r="D189" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="E189" t="n">
-        <v>49</v>
-      </c>
-      <c r="F189" t="n">
-        <v>30524.0224</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-925126.6258224536</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>49</v>
-      </c>
-      <c r="C190" t="n">
-        <v>49</v>
-      </c>
-      <c r="D190" t="n">
-        <v>49</v>
-      </c>
-      <c r="E190" t="n">
-        <v>49</v>
-      </c>
-      <c r="F190" t="n">
-        <v>3985.2658</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-925126.6258224536</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="C191" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="D191" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="E191" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="F191" t="n">
-        <v>13128.5946</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-911998.0312224537</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="C192" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="D192" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="E192" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F192" t="n">
-        <v>70000</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-841998.0312224537</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="C193" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="D193" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="E193" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F193" t="n">
-        <v>60508.4847</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-781489.5465224537</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="C194" t="n">
-        <v>50.1</v>
-      </c>
-      <c r="D194" t="n">
-        <v>50.1</v>
-      </c>
-      <c r="E194" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="F194" t="n">
-        <v>46318.5427</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-735171.0038224537</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="C195" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="D195" t="n">
-        <v>50.1</v>
-      </c>
-      <c r="E195" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="F195" t="n">
-        <v>41674.1428</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-776845.1466224537</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>50.1</v>
-      </c>
-      <c r="C196" t="n">
-        <v>50</v>
-      </c>
-      <c r="D196" t="n">
-        <v>50.1</v>
-      </c>
-      <c r="E196" t="n">
-        <v>50</v>
-      </c>
-      <c r="F196" t="n">
-        <v>36824.9728</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-740020.1738224537</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>1.128786848072562</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1.025</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7684,7 +7974,7 @@
         <v>-878810.4731639707</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7717,7 +8007,7 @@
         <v>-938510.5444428754</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7750,7 +8040,7 @@
         <v>-934431.9545428754</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7783,7 +8073,7 @@
         <v>-914187.6544076528</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7816,7 +8106,7 @@
         <v>-954187.6544076528</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7849,7 +8139,7 @@
         <v>-1095284.379107653</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7882,7 +8172,7 @@
         <v>-1237781.516007653</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7915,7 +8205,7 @@
         <v>-1237256.129407653</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7948,7 +8238,7 @@
         <v>-1237256.129407653</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8377,7 +8667,7 @@
         <v>-1262602.534107652</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8443,7 +8733,7 @@
         <v>-1263494.142907653</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8740,7 +9030,7 @@
         <v>-1316518.628007652</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8806,7 +9096,7 @@
         <v>-1298413.159407652</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8839,7 +9129,7 @@
         <v>-1282562.468907652</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8872,7 +9162,7 @@
         <v>-1331724.881807653</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9136,7 +9426,7 @@
         <v>-1320152.305607653</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -11974,7 +12264,7 @@
         <v>-1368888.987207652</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12007,7 +12297,7 @@
         <v>-1308448.282207652</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12040,7 +12330,7 @@
         <v>-1277945.424807652</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12073,7 +12363,7 @@
         <v>-1342521.959707652</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12106,7 +12396,7 @@
         <v>-1342521.959707652</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12139,7 +12429,7 @@
         <v>-1454184.224207652</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12766,7 +13056,7 @@
         <v>-1624071.369907652</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12799,7 +13089,7 @@
         <v>-1413362.982607652</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12832,7 +13122,7 @@
         <v>-1275782.588407652</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12865,7 +13155,7 @@
         <v>-1275782.588407652</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13162,7 +13452,7 @@
         <v>-822914.2330230959</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13195,7 +13485,7 @@
         <v>-855596.0048230959</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13228,7 +13518,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13261,7 +13551,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13294,7 +13584,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13327,7 +13617,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13360,7 +13650,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13393,7 +13683,7 @@
         <v>-849663.1031385398</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13426,7 +13716,7 @@
         <v>-884833.2944385398</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13459,7 +13749,7 @@
         <v>-973841.8631385397</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13492,7 +13782,7 @@
         <v>-919522.8866385397</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13525,7 +13815,7 @@
         <v>-919522.8866385397</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13558,7 +13848,7 @@
         <v>-965322.8866385397</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13591,7 +13881,7 @@
         <v>-965322.8866385397</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13624,7 +13914,7 @@
         <v>-1037076.29503854</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13657,7 +13947,7 @@
         <v>-1037076.29503854</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13690,7 +13980,7 @@
         <v>-1145269.33613854</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13723,7 +14013,7 @@
         <v>-1221274.73833854</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13756,7 +14046,7 @@
         <v>-1236181.23793854</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13789,7 +14079,7 @@
         <v>-1236181.23793854</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13822,7 +14112,7 @@
         <v>-1236181.23793854</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13855,7 +14145,7 @@
         <v>-1243614.61183854</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13888,7 +14178,7 @@
         <v>-1301191.36873854</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13921,7 +14211,7 @@
         <v>-1294372.708438539</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13954,7 +14244,7 @@
         <v>-1319258.989438539</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13987,7 +14277,7 @@
         <v>-1359592.934238539</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14020,7 +14310,7 @@
         <v>-1336811.966438539</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14053,7 +14343,7 @@
         <v>-1334786.182038539</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14086,7 +14376,7 @@
         <v>-1332761.316638539</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14119,7 +14409,7 @@
         <v>-1317888.478838539</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14152,7 +14442,7 @@
         <v>-1371308.102438539</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14185,7 +14475,7 @@
         <v>-1370471.328738539</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14218,7 +14508,7 @@
         <v>-1368489.946738539</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14251,7 +14541,7 @@
         <v>-1369915.184538539</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14284,7 +14574,7 @@
         <v>-1369471.184538539</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14317,7 +14607,7 @@
         <v>-1388271.184538539</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14350,7 +14640,7 @@
         <v>-1388035.748338539</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14383,7 +14673,7 @@
         <v>-1484853.622838539</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14449,7 +14739,7 @@
         <v>-1512230.081338539</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14482,7 +14772,7 @@
         <v>-1512230.081338539</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14515,7 +14805,7 @@
         <v>-1512444.120738539</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14548,7 +14838,7 @@
         <v>-1427212.905838539</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14581,7 +14871,7 @@
         <v>-1427212.905838539</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14614,7 +14904,7 @@
         <v>-1427212.905838539</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14647,7 +14937,7 @@
         <v>-1427212.905838539</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14680,7 +14970,7 @@
         <v>-1411353.479738539</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14713,7 +15003,7 @@
         <v>-1398668.099838539</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14746,7 +15036,7 @@
         <v>-1398668.099838539</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14779,7 +15069,7 @@
         <v>-1398668.099838539</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14812,7 +15102,7 @@
         <v>-1392679.236938539</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14845,7 +15135,7 @@
         <v>-1412524.048038539</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14878,7 +15168,7 @@
         <v>-1471867.095138539</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14911,7 +15201,7 @@
         <v>-1475082.324338539</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14944,7 +15234,7 @@
         <v>-1485521.388738539</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14977,7 +15267,7 @@
         <v>-1485271.388738539</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15010,7 +15300,7 @@
         <v>-1466437.640538539</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15043,7 +15333,7 @@
         <v>-1466187.640538539</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15076,7 +15366,7 @@
         <v>-1465687.640538539</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15109,7 +15399,7 @@
         <v>-1465687.640538539</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15142,7 +15432,7 @@
         <v>-1465687.640538539</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15175,7 +15465,7 @@
         <v>-1361421.304338539</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15274,7 +15564,7 @@
         <v>-1361671.304338539</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15340,7 +15630,7 @@
         <v>-1381896.723638539</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -18552,6 +18842,6 @@
       <c r="M526" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-15 BackTest LAMB.xlsx
+++ b/BackTest/2019-11-15 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1309,14 +1309,10 @@
         <v>-702486.1938999998</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>44.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
@@ -1346,19 +1342,11 @@
         <v>-702486.1938999998</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1387,19 +1375,11 @@
         <v>-702486.1938999998</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1428,19 +1408,11 @@
         <v>-741783.4325999998</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1469,19 +1441,11 @@
         <v>-740502.4325999998</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1510,19 +1474,11 @@
         <v>-741301.1978999998</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1551,19 +1507,11 @@
         <v>-734055.7627999998</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="J34" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1592,19 +1540,11 @@
         <v>-734055.7627999998</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="J35" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1633,19 +1573,11 @@
         <v>-734055.7627999998</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="J36" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1674,19 +1606,11 @@
         <v>-731312.2063999998</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1715,19 +1639,11 @@
         <v>-736257.2290999998</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="J38" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1756,19 +1672,11 @@
         <v>-735141.4503999997</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1797,19 +1705,11 @@
         <v>-774731.0736999997</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J40" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1838,19 +1738,11 @@
         <v>-774731.0736999997</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1879,19 +1771,11 @@
         <v>-775018.6818999997</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1920,19 +1804,11 @@
         <v>-842943.6318999997</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1961,19 +1837,11 @@
         <v>-847601.9192999997</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="J44" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2002,19 +1870,11 @@
         <v>-902362.9133999997</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>44.3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2043,19 +1903,11 @@
         <v>-902362.9133999997</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2084,19 +1936,11 @@
         <v>-902362.9133999997</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2125,19 +1969,11 @@
         <v>-882362.9133999997</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2166,19 +2002,11 @@
         <v>-884211.1432999998</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="J49" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2207,19 +2035,11 @@
         <v>-882758.4342999997</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>44.3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2248,19 +2068,11 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2289,19 +2101,11 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="J52" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2330,19 +2134,11 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="J53" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2371,19 +2167,11 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="J54" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2412,19 +2200,11 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="J55" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2453,19 +2233,11 @@
         <v>-938024.0166999997</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="J56" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2494,19 +2266,11 @@
         <v>-1006592.7268</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2535,19 +2299,11 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>44.3</v>
-      </c>
-      <c r="J58" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2576,19 +2332,11 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2617,19 +2365,11 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2658,19 +2398,11 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="J61" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2699,19 +2431,11 @@
         <v>-947777.4159999997</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2740,19 +2464,11 @@
         <v>-947777.4159999997</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="J63" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2781,19 +2497,11 @@
         <v>-947777.4159999997</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="J64" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2822,19 +2530,11 @@
         <v>-947777.4159999997</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="J65" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2866,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2905,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2944,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2983,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3022,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3061,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3100,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3139,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3178,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3217,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3256,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3295,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3334,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3373,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3412,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3451,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3490,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3529,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3568,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3607,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3646,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3685,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3724,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3763,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3802,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3841,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3880,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3919,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3958,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3997,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4036,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4075,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4114,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4153,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4192,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4231,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4270,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4309,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4348,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4387,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4426,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4465,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4504,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4543,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4582,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4621,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4660,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4699,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4738,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4774,17 +4180,11 @@
         <v>-665946.4474224539</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4813,17 +4213,11 @@
         <v>-754228.8912224539</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4852,17 +4246,11 @@
         <v>-904894.7310224539</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4894,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4933,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4972,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5011,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5050,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5089,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5128,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5167,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5206,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5245,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5284,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5323,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5362,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5401,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5440,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5479,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5518,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5557,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5593,17 +4873,11 @@
         <v>-862394.3254224538</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5632,17 +4906,11 @@
         <v>-859353.8472224538</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5671,17 +4939,11 @@
         <v>-859353.8472224538</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5710,17 +4972,11 @@
         <v>-860772.0894224538</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5749,17 +5005,11 @@
         <v>-872785.2808224538</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5788,17 +5038,11 @@
         <v>-872785.2808224538</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5827,17 +5071,11 @@
         <v>-872785.2808224538</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5866,17 +5104,11 @@
         <v>-875932.5356224538</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5905,17 +5137,11 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5944,17 +5170,11 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5983,17 +5203,11 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6022,17 +5236,11 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6061,17 +5269,11 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6100,17 +5302,11 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6139,17 +5335,11 @@
         <v>-752937.2602224539</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6178,17 +5368,11 @@
         <v>-750592.3960224539</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6217,17 +5401,11 @@
         <v>-750592.3960224539</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6256,17 +5434,11 @@
         <v>-750539.8960224539</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6295,17 +5467,11 @@
         <v>-667852.0483224539</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6334,17 +5500,11 @@
         <v>-667852.0483224539</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6373,17 +5533,11 @@
         <v>-608981.2926224539</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6412,17 +5566,11 @@
         <v>-567655.3971224539</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6451,17 +5599,11 @@
         <v>-567655.3971224539</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6490,17 +5632,11 @@
         <v>-604658.9660224539</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6529,17 +5665,11 @@
         <v>-714679.9653224539</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6568,17 +5698,11 @@
         <v>-905922.3739224538</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6607,17 +5731,11 @@
         <v>-967870.9725224539</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6646,17 +5764,11 @@
         <v>-967870.9725224539</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6685,17 +5797,11 @@
         <v>-967870.9725224539</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6724,17 +5830,11 @@
         <v>-967590.9448224539</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6763,17 +5863,11 @@
         <v>-961894.7758224539</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6802,17 +5896,11 @@
         <v>-963651.8608224539</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6841,17 +5929,11 @@
         <v>-975851.8608224539</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6880,17 +5962,11 @@
         <v>-978461.4342224539</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6919,17 +5995,11 @@
         <v>-1152954.866622454</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6958,17 +6028,11 @@
         <v>-1152954.866622454</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6997,17 +6061,11 @@
         <v>-1124330.694522454</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7036,17 +6094,11 @@
         <v>-1124330.694522454</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7075,17 +6127,11 @@
         <v>-1132570.219022454</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7117,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7156,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7195,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7234,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7270,17 +6292,11 @@
         <v>-1015122.390122454</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7309,17 +6325,11 @@
         <v>-933165.4054224538</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7348,17 +6358,11 @@
         <v>-918775.9206224538</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7387,17 +6391,11 @@
         <v>-901787.7447224538</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7426,17 +6424,11 @@
         <v>-910876.3745224538</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7465,17 +6457,11 @@
         <v>-911418.3282224537</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7504,17 +6490,11 @@
         <v>-894318.3282224537</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7546,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7585,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7624,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7663,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7702,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7741,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7780,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7819,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7858,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7897,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7933,23 +6853,15 @@
         <v>-740020.1738224537</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
-        <v>1.128786848072562</v>
-      </c>
-      <c r="M196" t="n">
-        <v>1.025</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7974,7 +6886,7 @@
         <v>-878810.4731639707</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8007,7 +6919,7 @@
         <v>-938510.5444428754</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8040,7 +6952,7 @@
         <v>-934431.9545428754</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8106,7 +7018,7 @@
         <v>-954187.6544076528</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8139,7 +7051,7 @@
         <v>-1095284.379107653</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8832,7 +7744,7 @@
         <v>-1279292.056507653</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8865,7 +7777,7 @@
         <v>-1314553.836407653</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -9591,10 +8503,14 @@
         <v>-1421607.931207653</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>47</v>
+      </c>
+      <c r="J246" t="n">
+        <v>47</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
@@ -9627,8 +8543,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>47</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9660,8 +8582,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>47</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10416,11 +9344,17 @@
         <v>-1612475.812107653</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>47.2</v>
+      </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10449,11 +9383,17 @@
         <v>-1712538.989707653</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>47.2</v>
+      </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10482,11 +9422,17 @@
         <v>-1712538.989707653</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>47</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10515,11 +9461,17 @@
         <v>-1714046.578707653</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>47</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10548,11 +9500,17 @@
         <v>-1706046.578707653</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>46.9</v>
+      </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10581,11 +9539,17 @@
         <v>-1706046.578707653</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>47</v>
+      </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10614,11 +9578,17 @@
         <v>-1705556.184707653</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>47</v>
+      </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10647,11 +9617,17 @@
         <v>-1705313.106607653</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>47.1</v>
+      </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10680,11 +9656,17 @@
         <v>-1640070.028507653</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>47.3</v>
+      </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10717,7 +9699,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10750,7 +9736,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10779,11 +9769,17 @@
         <v>-1665286.442507653</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>47.2</v>
+      </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10812,11 +9808,17 @@
         <v>-1645286.442507653</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>47.1</v>
+      </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10849,7 +9851,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10882,7 +9888,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10911,11 +9921,17 @@
         <v>-1672624.269607653</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>46.8</v>
+      </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10944,11 +9960,17 @@
         <v>-1665050.683207653</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>46.8</v>
+      </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10977,11 +9999,17 @@
         <v>-1640755.676507653</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>46.9</v>
+      </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11010,11 +10038,17 @@
         <v>-1677355.618007653</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>47.1</v>
+      </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11043,11 +10077,17 @@
         <v>-1671752.081307653</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>47</v>
+      </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11076,11 +10116,17 @@
         <v>-1671752.081307653</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>47.3</v>
+      </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11109,11 +10155,17 @@
         <v>-1673495.675107653</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>47.3</v>
+      </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11142,11 +10194,17 @@
         <v>-1673495.675107653</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>47.2</v>
+      </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11175,11 +10233,17 @@
         <v>-1683495.675107653</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>47.2</v>
+      </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11208,11 +10272,17 @@
         <v>-1669095.675107653</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>47</v>
+      </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11241,11 +10311,17 @@
         <v>-1964859.867107653</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>47.1</v>
+      </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11278,7 +10354,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11307,11 +10387,17 @@
         <v>-1964848.867107653</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>47.2</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11340,11 +10426,17 @@
         <v>-1972156.346707653</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>47.2</v>
+      </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11373,11 +10465,17 @@
         <v>-1971226.943107652</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>47</v>
+      </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11406,11 +10504,17 @@
         <v>-1971215.943107652</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>47.2</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11439,11 +10543,17 @@
         <v>-1971215.943107652</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>47.5</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11472,11 +10582,17 @@
         <v>-1951215.943107652</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>47.5</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11509,7 +10625,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11542,7 +10662,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11575,7 +10699,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11608,7 +10736,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11641,7 +10773,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11674,7 +10810,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11707,7 +10847,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11740,7 +10884,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11773,7 +10921,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11806,7 +10958,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11839,7 +10995,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11872,7 +11032,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11905,7 +11069,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11938,7 +11106,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11967,14 +11139,16 @@
         <v>-1599687.925907652</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
@@ -12000,7 +11174,7 @@
         <v>-1520078.925907652</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12297,7 +11471,7 @@
         <v>-1308448.282207652</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -13551,7 +12725,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13584,7 +12758,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13617,7 +12791,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13650,7 +12824,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13683,7 +12857,7 @@
         <v>-849663.1031385398</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13716,7 +12890,7 @@
         <v>-884833.2944385398</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13749,7 +12923,7 @@
         <v>-973841.8631385397</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13782,7 +12956,7 @@
         <v>-919522.8866385397</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13815,7 +12989,7 @@
         <v>-919522.8866385397</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13848,7 +13022,7 @@
         <v>-965322.8866385397</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13881,7 +13055,7 @@
         <v>-965322.8866385397</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13914,7 +13088,7 @@
         <v>-1037076.29503854</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13947,7 +13121,7 @@
         <v>-1037076.29503854</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13980,7 +13154,7 @@
         <v>-1145269.33613854</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14013,7 +13187,7 @@
         <v>-1221274.73833854</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14046,7 +13220,7 @@
         <v>-1236181.23793854</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14079,7 +13253,7 @@
         <v>-1236181.23793854</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14112,7 +13286,7 @@
         <v>-1236181.23793854</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14145,7 +13319,7 @@
         <v>-1243614.61183854</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14178,7 +13352,7 @@
         <v>-1301191.36873854</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14211,7 +13385,7 @@
         <v>-1294372.708438539</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14244,7 +13418,7 @@
         <v>-1319258.989438539</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14277,7 +13451,7 @@
         <v>-1359592.934238539</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14310,7 +13484,7 @@
         <v>-1336811.966438539</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14343,7 +13517,7 @@
         <v>-1334786.182038539</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14376,7 +13550,7 @@
         <v>-1332761.316638539</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14409,7 +13583,7 @@
         <v>-1317888.478838539</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14442,7 +13616,7 @@
         <v>-1371308.102438539</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14475,7 +13649,7 @@
         <v>-1370471.328738539</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14508,7 +13682,7 @@
         <v>-1368489.946738539</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14541,7 +13715,7 @@
         <v>-1369915.184538539</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14574,7 +13748,7 @@
         <v>-1369471.184538539</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14607,7 +13781,7 @@
         <v>-1388271.184538539</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14640,7 +13814,7 @@
         <v>-1388035.748338539</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14673,7 +13847,7 @@
         <v>-1484853.622838539</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14739,7 +13913,7 @@
         <v>-1512230.081338539</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14772,7 +13946,7 @@
         <v>-1512230.081338539</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14871,7 +14045,7 @@
         <v>-1427212.905838539</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -17874,10 +17048,14 @@
         <v>-1745156.106830033</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J497" t="n">
+        <v>48.1</v>
+      </c>
       <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
@@ -17907,11 +17085,19 @@
         <v>-1745156.106830033</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="J498" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17940,11 +17126,19 @@
         <v>-1745156.106830033</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="J499" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17976,8 +17170,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18009,8 +17209,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18042,8 +17248,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18072,11 +17284,19 @@
         <v>-1745156.106830033</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="J503" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18108,8 +17328,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18141,8 +17367,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18174,8 +17406,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18204,11 +17442,19 @@
         <v>-1743924.102030033</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="J507" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18237,11 +17483,19 @@
         <v>-1638643.952530032</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="J508" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18273,8 +17527,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18306,8 +17566,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18339,8 +17605,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18372,8 +17644,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18405,8 +17683,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18438,8 +17722,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18471,8 +17761,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18504,8 +17800,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18537,8 +17839,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18570,8 +17878,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18603,8 +17917,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18636,8 +17956,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18669,8 +17995,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18702,8 +18034,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18735,8 +18073,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18768,8 +18112,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18801,8 +18151,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18834,14 +18190,20 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
       <c r="M526" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-15 BackTest LAMB.xlsx
+++ b/BackTest/2019-11-15 BackTest LAMB.xlsx
@@ -1408,11 +1408,17 @@
         <v>-741783.4325999998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>44.1</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1447,17 @@
         <v>-740502.4325999998</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>43.9</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1486,17 @@
         <v>-741301.1978999998</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>44.5</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1525,17 @@
         <v>-734055.7627999998</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>44.2</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1564,17 @@
         <v>-734055.7627999998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>44.4</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1603,17 @@
         <v>-734055.7627999998</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>44.4</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1642,17 @@
         <v>-731312.2063999998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>44.4</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1681,17 @@
         <v>-736257.2290999998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>44.8</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1720,17 @@
         <v>-735141.4503999997</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>44.5</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1759,17 @@
         <v>-774731.0736999997</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>44.7</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1798,17 @@
         <v>-774731.0736999997</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>44.6</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1837,17 @@
         <v>-775018.6818999997</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>44.6</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1876,17 @@
         <v>-842943.6318999997</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>44.5</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1915,17 @@
         <v>-847601.9192999997</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>44.4</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1954,17 @@
         <v>-902362.9133999997</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>44.3</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1993,17 @@
         <v>-902362.9133999997</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>44.2</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2032,17 @@
         <v>-902362.9133999997</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>44.2</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2071,17 @@
         <v>-882362.9133999997</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>44.2</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2110,17 @@
         <v>-884211.1432999998</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>44.4</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2149,17 @@
         <v>-882758.4342999997</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>44.3</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2188,17 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>44.5</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2227,17 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>44.4</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2266,17 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>44.4</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2305,17 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>44.4</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2344,17 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>44.4</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2383,17 @@
         <v>-938024.0166999997</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>44.4</v>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2422,17 @@
         <v>-1006592.7268</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>44.5</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2461,17 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>44.3</v>
+      </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2500,17 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>44.5</v>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2539,17 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>44.5</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2578,17 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>44.5</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2617,17 @@
         <v>-947777.4159999997</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>44.5</v>
+      </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2656,17 @@
         <v>-947777.4159999997</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>44.6</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2695,17 @@
         <v>-947777.4159999997</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>44.6</v>
+      </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2734,17 @@
         <v>-947777.4159999997</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>44.6</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2773,17 @@
         <v>-847810.1696999997</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>44.6</v>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2812,17 @@
         <v>-847810.1696999997</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>45.2</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2851,17 @@
         <v>-778762.2019507723</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>45.2</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2894,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2927,17 @@
         <v>-778964.7683224537</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>45.2</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2966,17 @@
         <v>-781445.7464224537</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>45.2</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3009,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3046,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3083,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3116,17 @@
         <v>-757127.8116224536</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>45.2</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3159,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3196,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3233,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3270,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3307,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3344,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3381,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3418,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3455,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3492,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3529,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3566,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3603,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3640,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3677,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3714,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3751,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3788,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3825,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3862,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3899,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3936,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3973,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +4010,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4047,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4084,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4121,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4158,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4195,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4232,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4269,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4306,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4343,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4380,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4417,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4454,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4491,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4528,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4565,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4598,15 @@
         <v>-665946.4474224539</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4635,15 @@
         <v>-754228.8912224539</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4672,15 @@
         <v>-904894.7310224539</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4713,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4750,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4787,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4824,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4861,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4898,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4935,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4972,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +5009,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +5046,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +5083,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5120,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5157,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5194,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5231,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5268,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5305,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5342,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +5375,15 @@
         <v>-862394.3254224538</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +5412,15 @@
         <v>-859353.8472224538</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +5449,15 @@
         <v>-859353.8472224538</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5486,15 @@
         <v>-860772.0894224538</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5523,15 @@
         <v>-872785.2808224538</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5560,15 @@
         <v>-872785.2808224538</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5597,15 @@
         <v>-872785.2808224538</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5634,15 @@
         <v>-875932.5356224538</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5671,15 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5708,15 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5745,15 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5782,15 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5819,15 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5856,15 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5893,15 @@
         <v>-752937.2602224539</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5930,15 @@
         <v>-750592.3960224539</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5967,15 @@
         <v>-750592.3960224539</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +6004,15 @@
         <v>-750539.8960224539</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +6041,15 @@
         <v>-667852.0483224539</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +6078,15 @@
         <v>-667852.0483224539</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +6115,15 @@
         <v>-608981.2926224539</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +6152,15 @@
         <v>-567655.3971224539</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +6189,15 @@
         <v>-567655.3971224539</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +6226,15 @@
         <v>-604658.9660224539</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +6263,15 @@
         <v>-714679.9653224539</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +6300,15 @@
         <v>-905922.3739224538</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +6337,15 @@
         <v>-967870.9725224539</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +6374,15 @@
         <v>-967870.9725224539</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +6411,15 @@
         <v>-967870.9725224539</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6448,15 @@
         <v>-967590.9448224539</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6485,15 @@
         <v>-961894.7758224539</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6522,15 @@
         <v>-963651.8608224539</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6559,15 @@
         <v>-975851.8608224539</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6596,15 @@
         <v>-978461.4342224539</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6633,15 @@
         <v>-1152954.866622454</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6670,15 @@
         <v>-1152954.866622454</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6707,15 @@
         <v>-1124330.694522454</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6744,15 @@
         <v>-1124330.694522454</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6781,15 @@
         <v>-1132570.219022454</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6822,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6859,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6896,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6933,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6966,15 @@
         <v>-1015122.390122454</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +7003,15 @@
         <v>-933165.4054224538</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +7040,15 @@
         <v>-918775.9206224538</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +7077,15 @@
         <v>-901787.7447224538</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +7114,15 @@
         <v>-910876.3745224538</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +7151,15 @@
         <v>-911418.3282224537</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +7188,15 @@
         <v>-894318.3282224537</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +7229,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +7266,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +7303,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +7340,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +7377,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +7414,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +7451,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7488,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6787,14 +7521,16 @@
         <v>-735171.0038224537</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
@@ -6820,7 +7556,7 @@
         <v>-776845.1466224537</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +7589,7 @@
         <v>-740020.1738224537</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +7622,7 @@
         <v>-878810.4731639707</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +7655,7 @@
         <v>-938510.5444428754</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7018,7 +7754,7 @@
         <v>-954187.6544076528</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7787,7 @@
         <v>-1095284.379107653</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7744,7 +8480,7 @@
         <v>-1279292.056507653</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +8513,7 @@
         <v>-1314553.836407653</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8503,14 +9239,10 @@
         <v>-1421607.931207653</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>47</v>
-      </c>
-      <c r="J246" t="n">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
@@ -8543,14 +9275,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>47</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8582,14 +9308,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>47</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9278,10 +9998,14 @@
         <v>-1593475.812107653</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="J269" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
@@ -9314,8 +10038,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9349,7 +10079,9 @@
       <c r="I271" t="n">
         <v>47.2</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -9383,12 +10115,12 @@
         <v>-1712538.989707653</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9427,7 +10159,9 @@
       <c r="I273" t="n">
         <v>47</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9466,7 +10200,9 @@
       <c r="I274" t="n">
         <v>47</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9505,7 +10241,9 @@
       <c r="I275" t="n">
         <v>46.9</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9544,7 +10282,9 @@
       <c r="I276" t="n">
         <v>47</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9583,7 +10323,9 @@
       <c r="I277" t="n">
         <v>47</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9622,7 +10364,9 @@
       <c r="I278" t="n">
         <v>47.1</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9661,7 +10405,9 @@
       <c r="I279" t="n">
         <v>47.3</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9695,10 +10441,14 @@
         <v>-1640070.028507653</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J280" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9732,10 +10482,14 @@
         <v>-1650555.750807653</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J281" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9774,7 +10528,9 @@
       <c r="I282" t="n">
         <v>47.2</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9813,7 +10569,9 @@
       <c r="I283" t="n">
         <v>47.1</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9847,10 +10605,14 @@
         <v>-1645035.611107653</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="J284" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9884,10 +10646,14 @@
         <v>-1672624.269607653</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="J285" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9926,7 +10692,9 @@
       <c r="I286" t="n">
         <v>46.8</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9965,7 +10733,9 @@
       <c r="I287" t="n">
         <v>46.8</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10004,7 +10774,9 @@
       <c r="I288" t="n">
         <v>46.9</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10043,7 +10815,9 @@
       <c r="I289" t="n">
         <v>47.1</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10082,7 +10856,9 @@
       <c r="I290" t="n">
         <v>47</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10121,7 +10897,9 @@
       <c r="I291" t="n">
         <v>47.3</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10160,7 +10938,9 @@
       <c r="I292" t="n">
         <v>47.3</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10199,7 +10979,9 @@
       <c r="I293" t="n">
         <v>47.2</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10238,7 +11020,9 @@
       <c r="I294" t="n">
         <v>47.2</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10277,7 +11061,9 @@
       <c r="I295" t="n">
         <v>47</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10316,7 +11102,9 @@
       <c r="I296" t="n">
         <v>47.1</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10350,10 +11138,14 @@
         <v>-1964848.867107653</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="J297" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10392,7 +11184,9 @@
       <c r="I298" t="n">
         <v>47.2</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10431,7 +11225,9 @@
       <c r="I299" t="n">
         <v>47.2</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10470,7 +11266,9 @@
       <c r="I300" t="n">
         <v>47</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10509,7 +11307,9 @@
       <c r="I301" t="n">
         <v>47.2</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10548,7 +11348,9 @@
       <c r="I302" t="n">
         <v>47.5</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10587,7 +11389,9 @@
       <c r="I303" t="n">
         <v>47.5</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10621,10 +11425,14 @@
         <v>-1869062.064507653</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="J304" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10658,10 +11466,14 @@
         <v>-1869051.064507653</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>48</v>
+      </c>
+      <c r="J305" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10695,10 +11507,14 @@
         <v>-1602734.483907653</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J306" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10735,7 +11551,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10772,7 +11590,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10809,7 +11629,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10846,7 +11668,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10883,7 +11707,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10920,7 +11746,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10957,7 +11785,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10994,7 +11824,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11031,7 +11863,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11068,7 +11902,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11102,10 +11938,14 @@
         <v>-1599687.925907652</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J317" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11139,16 +11979,22 @@
         <v>-1599687.925907652</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J318" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L318" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
       <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
@@ -11174,11 +12020,19 @@
         <v>-1520078.925907652</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J319" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11210,8 +12064,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11240,11 +12100,19 @@
         <v>-1519253.626707652</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="J321" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11276,8 +12144,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11306,11 +12180,19 @@
         <v>-1499231.081607652</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="J323" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11342,8 +12224,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11375,8 +12263,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11408,8 +12302,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11441,8 +12341,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11471,11 +12377,17 @@
         <v>-1308448.282207652</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11507,8 +12419,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11540,8 +12458,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11573,8 +12497,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11606,8 +12536,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11639,8 +12575,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11672,8 +12614,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11705,8 +12653,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11738,8 +12692,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11771,8 +12731,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11804,8 +12770,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11837,8 +12809,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11870,8 +12848,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11903,8 +12887,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11936,8 +12926,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11969,8 +12965,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12002,8 +13004,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12035,8 +13043,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12068,8 +13082,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12101,8 +13121,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12134,8 +13160,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12167,8 +13199,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12200,8 +13238,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12233,8 +13277,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12266,8 +13316,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12299,8 +13355,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12332,8 +13394,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12365,8 +13433,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12398,8 +13472,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12431,8 +13511,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12464,8 +13550,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12497,8 +13589,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12530,8 +13628,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12560,15 +13664,23 @@
         <v>-1045041.639207652</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
+        <v>1.083794926004229</v>
+      </c>
+      <c r="M361" t="n">
+        <v>1.14123006833713</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -12593,7 +13705,7 @@
         <v>-755913.3853076518</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12626,7 +13738,7 @@
         <v>-822914.2330230959</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12659,7 +13771,7 @@
         <v>-855596.0048230959</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12692,7 +13804,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12725,7 +13837,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12758,7 +13870,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12791,7 +13903,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12824,7 +13936,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12857,7 +13969,7 @@
         <v>-849663.1031385398</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12890,7 +14002,7 @@
         <v>-884833.2944385398</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12923,7 +14035,7 @@
         <v>-973841.8631385397</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12956,7 +14068,7 @@
         <v>-919522.8866385397</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12989,7 +14101,7 @@
         <v>-919522.8866385397</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13022,7 +14134,7 @@
         <v>-965322.8866385397</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13055,7 +14167,7 @@
         <v>-965322.8866385397</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13088,7 +14200,7 @@
         <v>-1037076.29503854</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13121,7 +14233,7 @@
         <v>-1037076.29503854</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13154,7 +14266,7 @@
         <v>-1145269.33613854</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13187,7 +14299,7 @@
         <v>-1221274.73833854</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -16520,10 +17632,14 @@
         <v>-1845452.577830033</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J481" t="n">
+        <v>48.1</v>
+      </c>
       <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
@@ -16553,11 +17669,19 @@
         <v>-1825452.577830033</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J482" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16586,11 +17710,19 @@
         <v>-1826904.250030033</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="J483" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16619,11 +17751,19 @@
         <v>-1842087.852630033</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J484" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16652,11 +17792,19 @@
         <v>-1793295.405230033</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>48</v>
+      </c>
+      <c r="J485" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16685,11 +17833,19 @@
         <v>-1817836.941330033</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="J486" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16718,11 +17874,19 @@
         <v>-1883490.871330033</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J487" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16751,11 +17915,19 @@
         <v>-1911843.762230033</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="J488" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16784,11 +17956,19 @@
         <v>-1892681.021530033</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J489" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16817,11 +17997,19 @@
         <v>-1899717.758630033</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="J490" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16850,11 +18038,19 @@
         <v>-1899717.758630033</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J491" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16883,11 +18079,19 @@
         <v>-1899717.758630033</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J492" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16916,11 +18120,19 @@
         <v>-1899717.758630033</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J493" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16949,11 +18161,19 @@
         <v>-1909786.239230033</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J494" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16982,11 +18202,19 @@
         <v>-1879356.946030033</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="J495" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17015,11 +18243,19 @@
         <v>-1746492.804630033</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J496" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17056,7 +18292,11 @@
       <c r="J497" t="n">
         <v>48.1</v>
       </c>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17095,7 +18335,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L498" t="n">
@@ -17136,7 +18376,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L499" t="n">
@@ -17167,9 +18407,11 @@
         <v>-1745156.106830033</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>48.2</v>
+      </c>
       <c r="J500" t="n">
         <v>48.1</v>
       </c>
@@ -17206,9 +18448,11 @@
         <v>-1745156.106830033</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>48.2</v>
+      </c>
       <c r="J501" t="n">
         <v>48.1</v>
       </c>
@@ -17364,9 +18608,11 @@
         <v>-1745156.106830033</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>48.2</v>
+      </c>
       <c r="J505" t="n">
         <v>48.1</v>
       </c>
@@ -17403,9 +18649,11 @@
         <v>-1743924.102030033</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>48.2</v>
+      </c>
       <c r="J506" t="n">
         <v>48.1</v>
       </c>
@@ -17524,9 +18772,11 @@
         <v>-1622446.155630033</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>49.5</v>
+      </c>
       <c r="J509" t="n">
         <v>48.1</v>
       </c>
@@ -17563,9 +18813,11 @@
         <v>-1576696.623130033</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>49.8</v>
+      </c>
       <c r="J510" t="n">
         <v>48.1</v>
       </c>
@@ -17602,9 +18854,11 @@
         <v>-1590979.481630033</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>49.9</v>
+      </c>
       <c r="J511" t="n">
         <v>48.1</v>
       </c>
@@ -17641,9 +18895,11 @@
         <v>-1660010.307830033</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>49.7</v>
+      </c>
       <c r="J512" t="n">
         <v>48.1</v>
       </c>
@@ -17680,9 +18936,11 @@
         <v>-1614857.297530033</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>49.4</v>
+      </c>
       <c r="J513" t="n">
         <v>48.1</v>
       </c>
@@ -17719,9 +18977,11 @@
         <v>-1628992.001030033</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>49.5</v>
+      </c>
       <c r="J514" t="n">
         <v>48.1</v>
       </c>
@@ -17758,9 +19018,11 @@
         <v>-1632404.454630033</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>49.4</v>
+      </c>
       <c r="J515" t="n">
         <v>48.1</v>
       </c>
@@ -17797,9 +19059,11 @@
         <v>-1680163.709730033</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>49.3</v>
+      </c>
       <c r="J516" t="n">
         <v>48.1</v>
       </c>
@@ -17836,9 +19100,11 @@
         <v>-1682582.354230033</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>49</v>
+      </c>
       <c r="J517" t="n">
         <v>48.1</v>
       </c>
@@ -17875,9 +19141,11 @@
         <v>-1682582.354230033</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>48.9</v>
+      </c>
       <c r="J518" t="n">
         <v>48.1</v>
       </c>
@@ -17914,9 +19182,11 @@
         <v>-1682832.354230033</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>48.9</v>
+      </c>
       <c r="J519" t="n">
         <v>48.1</v>
       </c>
@@ -17953,9 +19223,11 @@
         <v>-1682982.825330033</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>48.8</v>
+      </c>
       <c r="J520" t="n">
         <v>48.1</v>
       </c>
@@ -17992,9 +19264,11 @@
         <v>-2083410.113430033</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>48.7</v>
+      </c>
       <c r="J521" t="n">
         <v>48.1</v>
       </c>
@@ -18070,9 +19344,11 @@
         <v>-2073085.689830032</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>48.4</v>
+      </c>
       <c r="J523" t="n">
         <v>48.1</v>
       </c>
@@ -18109,9 +19385,11 @@
         <v>-2073085.689830032</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>48.3</v>
+      </c>
       <c r="J524" t="n">
         <v>48.1</v>
       </c>
@@ -18148,9 +19426,11 @@
         <v>-2063320.846330032</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>48.3</v>
+      </c>
       <c r="J525" t="n">
         <v>48.1</v>
       </c>
@@ -18187,9 +19467,11 @@
         <v>-2063320.846330032</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>48.4</v>
+      </c>
       <c r="J526" t="n">
         <v>48.1</v>
       </c>
